--- a/JupyterNotebooks/AvgHW/O554F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.003784579615898</v>
+      </c>
+      <c r="D3">
         <v>1.198956928914485</v>
       </c>
-      <c r="D3">
-        <v>0.9745254296422354</v>
-      </c>
       <c r="E3">
+        <v>0.985694152104294</v>
+      </c>
+      <c r="F3">
+        <v>0.9290351252787633</v>
+      </c>
+      <c r="G3">
+        <v>1.198956928914485</v>
+      </c>
+      <c r="H3">
+        <v>0.9745254296422358</v>
+      </c>
+      <c r="I3">
         <v>1.022518592558583</v>
       </c>
-      <c r="F3">
-        <v>1.198956928914485</v>
-      </c>
-      <c r="G3">
-        <v>0.9856941521042947</v>
-      </c>
-      <c r="H3">
-        <v>0.9290351252787633</v>
-      </c>
-      <c r="I3">
-        <v>1.003784579615898</v>
-      </c>
       <c r="J3">
-        <v>0.9745254296422354</v>
+        <v>0.9745254296422358</v>
       </c>
       <c r="K3">
         <v>1.198956928914485</v>
@@ -644,10 +656,10 @@
         <v>1.022518592558583</v>
       </c>
       <c r="M3">
-        <v>0.9985220111004091</v>
+        <v>0.9985220111004092</v>
       </c>
       <c r="N3">
-        <v>0.9985220111004091</v>
+        <v>0.9985220111004092</v>
       </c>
       <c r="O3">
         <v>0.9753597158265271</v>
@@ -676,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9855017272006866</v>
+      </c>
+      <c r="D4">
         <v>1.229205207027086</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1.083309460784969</v>
+      </c>
+      <c r="F4">
+        <v>0.8406442455800632</v>
+      </c>
+      <c r="G4">
+        <v>1.229205207027086</v>
+      </c>
+      <c r="H4">
         <v>0.9058005671829026</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>1.050702399134384</v>
-      </c>
-      <c r="F4">
-        <v>1.229205207027086</v>
-      </c>
-      <c r="G4">
-        <v>1.083309460784969</v>
-      </c>
-      <c r="H4">
-        <v>0.8406442455800631</v>
-      </c>
-      <c r="I4">
-        <v>0.9855017272006866</v>
       </c>
       <c r="J4">
         <v>0.9058005671829026</v>
@@ -738,31 +750,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.790048211794487</v>
+        <v>1.533747425146995</v>
       </c>
       <c r="D5">
+        <v>2.790048211794486</v>
+      </c>
+      <c r="E5">
+        <v>1.236940881419772</v>
+      </c>
+      <c r="F5">
+        <v>0.6747133034281512</v>
+      </c>
+      <c r="G5">
+        <v>2.790048211794486</v>
+      </c>
+      <c r="H5">
         <v>0.8981964778586757</v>
       </c>
-      <c r="E5">
+      <c r="I5">
         <v>1.295461500438941</v>
-      </c>
-      <c r="F5">
-        <v>2.790048211794487</v>
-      </c>
-      <c r="G5">
-        <v>1.236940881419772</v>
-      </c>
-      <c r="H5">
-        <v>0.6747133034281512</v>
-      </c>
-      <c r="I5">
-        <v>1.533747425146995</v>
       </c>
       <c r="J5">
         <v>0.8981964778586757</v>
       </c>
       <c r="K5">
-        <v>2.790048211794487</v>
+        <v>2.790048211794486</v>
       </c>
       <c r="L5">
         <v>1.295461500438941</v>
@@ -800,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.4171846513923382</v>
+      </c>
+      <c r="D6">
         <v>4.825829990993068</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>2.524912185616423</v>
+      </c>
+      <c r="F6">
+        <v>0.6127746093348216</v>
+      </c>
+      <c r="G6">
+        <v>4.825829990993068</v>
+      </c>
+      <c r="H6">
         <v>1.074050880238122</v>
       </c>
-      <c r="E6">
+      <c r="I6">
         <v>3.459388475871675</v>
-      </c>
-      <c r="F6">
-        <v>4.825829990993068</v>
-      </c>
-      <c r="G6">
-        <v>2.524912185616423</v>
-      </c>
-      <c r="H6">
-        <v>0.6127746093348216</v>
-      </c>
-      <c r="I6">
-        <v>0.4171846513923382</v>
       </c>
       <c r="J6">
         <v>1.074050880238122</v>
@@ -862,55 +874,55 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.056591426292759</v>
+        <v>0.9869110034252683</v>
       </c>
       <c r="D7">
-        <v>0.9788353397473685</v>
+        <v>1.05659142629276</v>
       </c>
       <c r="E7">
-        <v>0.9953687715378408</v>
+        <v>1.014327712439994</v>
       </c>
       <c r="F7">
-        <v>1.056591426292759</v>
+        <v>0.985609680612648</v>
       </c>
       <c r="G7">
-        <v>1.014327712439993</v>
+        <v>1.05659142629276</v>
       </c>
       <c r="H7">
-        <v>0.9856096806126489</v>
+        <v>0.978835339747369</v>
       </c>
       <c r="I7">
-        <v>0.9869110034252679</v>
+        <v>0.9953687715378418</v>
       </c>
       <c r="J7">
-        <v>0.9788353397473685</v>
+        <v>0.978835339747369</v>
       </c>
       <c r="K7">
-        <v>1.056591426292759</v>
+        <v>1.05659142629276</v>
       </c>
       <c r="L7">
-        <v>0.9953687715378408</v>
+        <v>0.9953687715378418</v>
       </c>
       <c r="M7">
-        <v>0.9871020556426047</v>
+        <v>0.9871020556426053</v>
       </c>
       <c r="N7">
-        <v>0.9871020556426047</v>
+        <v>0.9871020556426053</v>
       </c>
       <c r="O7">
-        <v>0.986604597299286</v>
+        <v>0.9866045972992863</v>
       </c>
       <c r="P7">
-        <v>1.010265179192656</v>
+        <v>1.010265179192657</v>
       </c>
       <c r="Q7">
-        <v>1.010265179192656</v>
+        <v>1.010265179192657</v>
       </c>
       <c r="R7">
-        <v>1.021846740967682</v>
+        <v>1.021846740967683</v>
       </c>
       <c r="S7">
-        <v>1.021846740967682</v>
+        <v>1.021846740967683</v>
       </c>
       <c r="T7">
         <v>1.00294065567598</v>
@@ -924,43 +936,43 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.063136335686939</v>
+        <v>0.9741253495393569</v>
       </c>
       <c r="D8">
-        <v>0.9869361729295403</v>
+        <v>1.06313633568694</v>
       </c>
       <c r="E8">
-        <v>0.9910588625093593</v>
+        <v>1.038464879687079</v>
       </c>
       <c r="F8">
-        <v>1.063136335686939</v>
+        <v>0.9814091405476436</v>
       </c>
       <c r="G8">
-        <v>1.038464879687085</v>
+        <v>1.06313633568694</v>
       </c>
       <c r="H8">
-        <v>0.9814091405476431</v>
+        <v>0.9869361729295402</v>
       </c>
       <c r="I8">
-        <v>0.974125349539359</v>
+        <v>0.9910588625093565</v>
       </c>
       <c r="J8">
-        <v>0.9869361729295403</v>
+        <v>0.9869361729295402</v>
       </c>
       <c r="K8">
-        <v>1.063136335686939</v>
+        <v>1.06313633568694</v>
       </c>
       <c r="L8">
-        <v>0.9910588625093593</v>
+        <v>0.9910588625093565</v>
       </c>
       <c r="M8">
-        <v>0.9889975177194498</v>
+        <v>0.9889975177194483</v>
       </c>
       <c r="N8">
-        <v>0.9889975177194498</v>
+        <v>0.9889975177194483</v>
       </c>
       <c r="O8">
-        <v>0.9864680586621809</v>
+        <v>0.98646805866218</v>
       </c>
       <c r="P8">
         <v>1.013710457041946</v>
@@ -975,7 +987,7 @@
         <v>1.026066926703194</v>
       </c>
       <c r="T8">
-        <v>1.005855123483321</v>
+        <v>1.005855123483319</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.948340653761006</v>
+      </c>
+      <c r="D9">
         <v>1.256306514237563</v>
       </c>
-      <c r="D9">
-        <v>0.9553312199285811</v>
-      </c>
       <c r="E9">
+        <v>0.9836270183077838</v>
+      </c>
+      <c r="F9">
+        <v>1.007414174082142</v>
+      </c>
+      <c r="G9">
+        <v>1.256306514237563</v>
+      </c>
+      <c r="H9">
+        <v>0.9553312199285813</v>
+      </c>
+      <c r="I9">
         <v>1.064984415219423</v>
       </c>
-      <c r="F9">
-        <v>1.256306514237563</v>
-      </c>
-      <c r="G9">
-        <v>0.9836270183077838</v>
-      </c>
-      <c r="H9">
-        <v>1.007414174082142</v>
-      </c>
-      <c r="I9">
-        <v>0.9483406537610062</v>
-      </c>
       <c r="J9">
-        <v>0.9553312199285811</v>
+        <v>0.9553312199285813</v>
       </c>
       <c r="K9">
         <v>1.256306514237563</v>
@@ -1025,16 +1037,16 @@
         <v>1.009243269743382</v>
       </c>
       <c r="P9">
-        <v>1.092207383128523</v>
+        <v>1.092207383128522</v>
       </c>
       <c r="Q9">
         <v>1.092207383128523</v>
       </c>
       <c r="R9">
-        <v>1.133232165905783</v>
+        <v>1.133232165905782</v>
       </c>
       <c r="S9">
-        <v>1.133232165905783</v>
+        <v>1.133232165905782</v>
       </c>
       <c r="T9">
         <v>1.03600066592275</v>
@@ -1048,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.221239141972095</v>
+      </c>
+      <c r="D10">
         <v>1.542802950508848</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1.004363736920123</v>
+      </c>
+      <c r="F10">
+        <v>1.008821240498856</v>
+      </c>
+      <c r="G10">
+        <v>1.542802950508848</v>
+      </c>
+      <c r="H10">
         <v>0.8778156391141844</v>
       </c>
-      <c r="E10">
+      <c r="I10">
         <v>1.142119864857981</v>
-      </c>
-      <c r="F10">
-        <v>1.542802950508848</v>
-      </c>
-      <c r="G10">
-        <v>1.004363736920123</v>
-      </c>
-      <c r="H10">
-        <v>1.008821240498856</v>
-      </c>
-      <c r="I10">
-        <v>1.221239141972095</v>
       </c>
       <c r="J10">
         <v>0.8778156391141844</v>
@@ -1110,40 +1122,40 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.8219022401342856</v>
+      </c>
+      <c r="D11">
         <v>1.703762906936088</v>
       </c>
-      <c r="D11">
-        <v>1.465220431406058</v>
-      </c>
       <c r="E11">
-        <v>1.268500628744414</v>
+        <v>1.229792736033029</v>
       </c>
       <c r="F11">
+        <v>1.278024463930689</v>
+      </c>
+      <c r="G11">
         <v>1.703762906936088</v>
       </c>
-      <c r="G11">
-        <v>1.229792736033029</v>
-      </c>
       <c r="H11">
-        <v>1.27802446393069</v>
+        <v>1.46522043140606</v>
       </c>
       <c r="I11">
-        <v>0.8219022401342856</v>
+        <v>1.268500628744413</v>
       </c>
       <c r="J11">
-        <v>1.465220431406058</v>
+        <v>1.46522043140606</v>
       </c>
       <c r="K11">
         <v>1.703762906936088</v>
       </c>
       <c r="L11">
-        <v>1.268500628744414</v>
+        <v>1.268500628744413</v>
       </c>
       <c r="M11">
-        <v>1.366860530075236</v>
+        <v>1.366860530075237</v>
       </c>
       <c r="N11">
-        <v>1.366860530075236</v>
+        <v>1.366860530075237</v>
       </c>
       <c r="O11">
         <v>1.337248508027054</v>
@@ -1172,55 +1184,55 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.3764207645814019</v>
+        <v>0.9552687975429606</v>
       </c>
       <c r="D12">
-        <v>0.005483698228616222</v>
+        <v>0.3764207645814031</v>
       </c>
       <c r="E12">
-        <v>0.002206662561325261</v>
+        <v>0.0006892505686102717</v>
       </c>
       <c r="F12">
-        <v>0.3764207645814019</v>
+        <v>0.0277853058582506</v>
       </c>
       <c r="G12">
-        <v>0.0006892505686102693</v>
+        <v>0.3764207645814031</v>
       </c>
       <c r="H12">
-        <v>0.0277853058582506</v>
+        <v>0.005483698228616214</v>
       </c>
       <c r="I12">
-        <v>0.9552687975429618</v>
+        <v>0.002206662561325237</v>
       </c>
       <c r="J12">
-        <v>0.005483698228616222</v>
+        <v>0.005483698228616214</v>
       </c>
       <c r="K12">
-        <v>0.3764207645814019</v>
+        <v>0.3764207645814031</v>
       </c>
       <c r="L12">
-        <v>0.002206662561325261</v>
+        <v>0.002206662561325237</v>
       </c>
       <c r="M12">
-        <v>0.003845180394970741</v>
+        <v>0.003845180394970726</v>
       </c>
       <c r="N12">
-        <v>0.003845180394970741</v>
+        <v>0.003845180394970726</v>
       </c>
       <c r="O12">
-        <v>0.01182522221606403</v>
+        <v>0.01182522221606402</v>
       </c>
       <c r="P12">
-        <v>0.1280370417904478</v>
+        <v>0.1280370417904482</v>
       </c>
       <c r="Q12">
-        <v>0.1280370417904478</v>
+        <v>0.1280370417904482</v>
       </c>
       <c r="R12">
-        <v>0.1901329724881863</v>
+        <v>0.1901329724881869</v>
       </c>
       <c r="S12">
-        <v>0.1901329724881863</v>
+        <v>0.1901329724881869</v>
       </c>
       <c r="T12">
         <v>0.227975746556861</v>
@@ -1234,43 +1246,43 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.523696846253131</v>
+        <v>0.7456461477609715</v>
       </c>
       <c r="D13">
-        <v>1.082404912359245</v>
+        <v>1.523696846253132</v>
       </c>
       <c r="E13">
+        <v>0.3073287146593363</v>
+      </c>
+      <c r="F13">
+        <v>1.559396370878425</v>
+      </c>
+      <c r="G13">
+        <v>1.523696846253132</v>
+      </c>
+      <c r="H13">
+        <v>1.082404912359243</v>
+      </c>
+      <c r="I13">
         <v>2.045999093377911</v>
       </c>
-      <c r="F13">
-        <v>1.523696846253131</v>
-      </c>
-      <c r="G13">
-        <v>0.3073287146593361</v>
-      </c>
-      <c r="H13">
-        <v>1.559396370878427</v>
-      </c>
-      <c r="I13">
-        <v>0.745646147760973</v>
-      </c>
       <c r="J13">
-        <v>1.082404912359245</v>
+        <v>1.082404912359243</v>
       </c>
       <c r="K13">
-        <v>1.523696846253131</v>
+        <v>1.523696846253132</v>
       </c>
       <c r="L13">
         <v>2.045999093377911</v>
       </c>
       <c r="M13">
-        <v>1.564202002868578</v>
+        <v>1.564202002868577</v>
       </c>
       <c r="N13">
-        <v>1.564202002868578</v>
+        <v>1.564202002868577</v>
       </c>
       <c r="O13">
-        <v>1.562600125538528</v>
+        <v>1.562600125538526</v>
       </c>
       <c r="P13">
         <v>1.550700283996762</v>
@@ -1285,7 +1297,7 @@
         <v>1.543949424560854</v>
       </c>
       <c r="T13">
-        <v>1.210745347548171</v>
+        <v>1.21074534754817</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,55 +1308,55 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.002603914104267083</v>
+        <v>1.335693275330806</v>
       </c>
       <c r="D14">
-        <v>0.006894729762544909</v>
+        <v>0.002603914104267074</v>
       </c>
       <c r="E14">
-        <v>0.3375906547800673</v>
+        <v>0.0005068676749151764</v>
       </c>
       <c r="F14">
-        <v>0.002603914104267083</v>
+        <v>1.434730850753292</v>
       </c>
       <c r="G14">
-        <v>0.0005068676749151788</v>
+        <v>0.002603914104267074</v>
       </c>
       <c r="H14">
-        <v>1.434730850753291</v>
+        <v>0.006894729762544905</v>
       </c>
       <c r="I14">
-        <v>1.335693275330806</v>
+        <v>0.3375906547800657</v>
       </c>
       <c r="J14">
-        <v>0.006894729762544909</v>
+        <v>0.006894729762544905</v>
       </c>
       <c r="K14">
-        <v>0.002603914104267083</v>
+        <v>0.002603914104267074</v>
       </c>
       <c r="L14">
-        <v>0.3375906547800673</v>
+        <v>0.3375906547800657</v>
       </c>
       <c r="M14">
-        <v>0.1722426922713061</v>
+        <v>0.1722426922713053</v>
       </c>
       <c r="N14">
-        <v>0.1722426922713061</v>
+        <v>0.1722426922713053</v>
       </c>
       <c r="O14">
         <v>0.5930720784319675</v>
       </c>
       <c r="P14">
-        <v>0.1156964328822931</v>
+        <v>0.1156964328822926</v>
       </c>
       <c r="Q14">
-        <v>0.1156964328822931</v>
+        <v>0.1156964328822926</v>
       </c>
       <c r="R14">
-        <v>0.0874233031877866</v>
+        <v>0.0874233031877862</v>
       </c>
       <c r="S14">
-        <v>0.0874233031877866</v>
+        <v>0.0874233031877862</v>
       </c>
       <c r="T14">
         <v>0.519670048734315</v>
@@ -1358,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.260253285487142</v>
+        <v>1.369073266138435</v>
       </c>
       <c r="D15">
+        <v>1.260253285487143</v>
+      </c>
+      <c r="E15">
+        <v>0.004710178862046044</v>
+      </c>
+      <c r="F15">
+        <v>1.570692271962322</v>
+      </c>
+      <c r="G15">
+        <v>1.260253285487143</v>
+      </c>
+      <c r="H15">
         <v>4.558166583797326</v>
       </c>
-      <c r="E15">
+      <c r="I15">
         <v>0.5673480213445826</v>
-      </c>
-      <c r="F15">
-        <v>1.260253285487142</v>
-      </c>
-      <c r="G15">
-        <v>0.004710178862046045</v>
-      </c>
-      <c r="H15">
-        <v>1.570692271962321</v>
-      </c>
-      <c r="I15">
-        <v>1.369073266138435</v>
       </c>
       <c r="J15">
         <v>4.558166583797326</v>
       </c>
       <c r="K15">
-        <v>1.260253285487142</v>
+        <v>1.260253285487143</v>
       </c>
       <c r="L15">
         <v>0.5673480213445826</v>
@@ -1394,19 +1406,19 @@
         <v>2.562757302570954</v>
       </c>
       <c r="O15">
-        <v>2.232068959034743</v>
+        <v>2.232068959034744</v>
       </c>
       <c r="P15">
-        <v>2.12858929687635</v>
+        <v>2.128589296876351</v>
       </c>
       <c r="Q15">
         <v>2.12858929687635</v>
       </c>
       <c r="R15">
-        <v>1.911505294029048</v>
+        <v>1.911505294029049</v>
       </c>
       <c r="S15">
-        <v>1.911505294029048</v>
+        <v>1.911505294029049</v>
       </c>
       <c r="T15">
         <v>1.555040601265309</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.077088046967938</v>
+        <v>1.488645022739878</v>
       </c>
       <c r="D16">
-        <v>1.000673701368522</v>
+        <v>3.426033666153096</v>
       </c>
       <c r="E16">
-        <v>0.9905590005805442</v>
+        <v>0.5812004123584811</v>
       </c>
       <c r="F16">
-        <v>1.077088046967938</v>
+        <v>0.1991708008310578</v>
       </c>
       <c r="G16">
-        <v>1.028948896914295</v>
+        <v>3.426033666153096</v>
       </c>
       <c r="H16">
-        <v>0.9925783898153222</v>
+        <v>0.1910839939485258</v>
       </c>
       <c r="I16">
-        <v>0.9708199658338833</v>
+        <v>1.4197879305157</v>
       </c>
       <c r="J16">
-        <v>1.000673701368522</v>
+        <v>0.1910839939485258</v>
       </c>
       <c r="K16">
-        <v>1.077088046967938</v>
+        <v>3.426033666153096</v>
       </c>
       <c r="L16">
-        <v>0.9905590005805442</v>
+        <v>1.4197879305157</v>
       </c>
       <c r="M16">
-        <v>0.9956163509745332</v>
+        <v>0.8054359622321128</v>
       </c>
       <c r="N16">
-        <v>0.9956163509745332</v>
+        <v>0.8054359622321128</v>
       </c>
       <c r="O16">
-        <v>0.9946036972547961</v>
+        <v>0.6033475750984277</v>
       </c>
       <c r="P16">
-        <v>1.022773582972335</v>
+        <v>1.678968530205774</v>
       </c>
       <c r="Q16">
-        <v>1.022773582972335</v>
+        <v>1.678968530205774</v>
       </c>
       <c r="R16">
-        <v>1.036352198971235</v>
+        <v>2.115734814192604</v>
       </c>
       <c r="S16">
-        <v>1.036352198971235</v>
+        <v>2.115734814192604</v>
       </c>
       <c r="T16">
-        <v>1.010111333580084</v>
+        <v>1.21765363775779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9833262660746656</v>
+        <v>1.305105414384574</v>
       </c>
       <c r="D17">
-        <v>1.020796476260661</v>
+        <v>2.591395626811819</v>
       </c>
       <c r="E17">
-        <v>1.045102575412122</v>
+        <v>1.161056095939968</v>
       </c>
       <c r="F17">
-        <v>0.9833262660746656</v>
+        <v>0.3979990805773068</v>
       </c>
       <c r="G17">
-        <v>1.102137910282778</v>
+        <v>2.591395626811819</v>
       </c>
       <c r="H17">
-        <v>0.9861571606660217</v>
+        <v>0.3837155811567308</v>
       </c>
       <c r="I17">
-        <v>0.976002966653795</v>
+        <v>1.279088072864755</v>
       </c>
       <c r="J17">
-        <v>1.020796476260661</v>
+        <v>0.3837155811567308</v>
       </c>
       <c r="K17">
-        <v>0.9833262660746656</v>
+        <v>2.591395626811819</v>
       </c>
       <c r="L17">
-        <v>1.045102575412122</v>
+        <v>1.279088072864755</v>
       </c>
       <c r="M17">
-        <v>1.032949525836392</v>
+        <v>0.8314018270107428</v>
       </c>
       <c r="N17">
-        <v>1.032949525836392</v>
+        <v>0.8314018270107428</v>
       </c>
       <c r="O17">
-        <v>1.017352070779602</v>
+        <v>0.6869342448662641</v>
       </c>
       <c r="P17">
-        <v>1.016408439249149</v>
+        <v>1.418066426944435</v>
       </c>
       <c r="Q17">
-        <v>1.016408439249149</v>
+        <v>1.418066426944435</v>
       </c>
       <c r="R17">
-        <v>1.008137895955528</v>
+        <v>1.711398726911281</v>
       </c>
       <c r="S17">
-        <v>1.008137895955528</v>
+        <v>1.711398726911281</v>
       </c>
       <c r="T17">
-        <v>1.018920559225007</v>
+        <v>1.186393311955859</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.311732626446619</v>
+        <v>0.9925932602012733</v>
       </c>
       <c r="D18">
-        <v>0.9917374879809642</v>
+        <v>1.188863400472951</v>
       </c>
       <c r="E18">
-        <v>1.266352797804681</v>
+        <v>2.567029495307509</v>
       </c>
       <c r="F18">
-        <v>1.311732626446619</v>
+        <v>0.6318299856820022</v>
       </c>
       <c r="G18">
-        <v>1.532752231800475</v>
+        <v>1.188863400472951</v>
       </c>
       <c r="H18">
-        <v>0.9751002034368711</v>
+        <v>0.7489108049584494</v>
       </c>
       <c r="I18">
-        <v>0.9180545184918721</v>
+        <v>1.21394983557345</v>
       </c>
       <c r="J18">
-        <v>0.9917374879809642</v>
+        <v>0.7489108049584494</v>
       </c>
       <c r="K18">
-        <v>1.311732626446619</v>
+        <v>1.188863400472951</v>
       </c>
       <c r="L18">
-        <v>1.266352797804681</v>
+        <v>1.21394983557345</v>
       </c>
       <c r="M18">
-        <v>1.129045142892823</v>
+        <v>0.9814303202659497</v>
       </c>
       <c r="N18">
-        <v>1.129045142892823</v>
+        <v>0.9814303202659497</v>
       </c>
       <c r="O18">
-        <v>1.077730163074172</v>
+        <v>0.8648968754046339</v>
       </c>
       <c r="P18">
-        <v>1.189940970744088</v>
+        <v>1.05057468033495</v>
       </c>
       <c r="Q18">
-        <v>1.189940970744088</v>
+        <v>1.05057468033495</v>
       </c>
       <c r="R18">
-        <v>1.220388884669721</v>
+        <v>1.08514686036945</v>
       </c>
       <c r="S18">
-        <v>1.220388884669721</v>
+        <v>1.08514686036945</v>
       </c>
       <c r="T18">
-        <v>1.165954977660247</v>
+        <v>1.223862797032606</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.000585640126407</v>
+      </c>
+      <c r="D19">
+        <v>0.647829268021471</v>
+      </c>
+      <c r="E19">
+        <v>2.794843897185893</v>
+      </c>
+      <c r="F19">
+        <v>0.9043485124599977</v>
+      </c>
+      <c r="G19">
+        <v>0.647829268021471</v>
+      </c>
+      <c r="H19">
+        <v>1.473547287455297</v>
+      </c>
+      <c r="I19">
+        <v>0.8768722071092797</v>
+      </c>
+      <c r="J19">
+        <v>1.473547287455297</v>
+      </c>
+      <c r="K19">
+        <v>0.647829268021471</v>
+      </c>
+      <c r="L19">
+        <v>0.8768722071092797</v>
+      </c>
+      <c r="M19">
+        <v>1.175209747282288</v>
+      </c>
+      <c r="N19">
+        <v>1.175209747282288</v>
+      </c>
+      <c r="O19">
+        <v>1.084922669008191</v>
+      </c>
+      <c r="P19">
+        <v>0.9994162541953493</v>
+      </c>
+      <c r="Q19">
+        <v>0.9994162541953493</v>
+      </c>
+      <c r="R19">
+        <v>0.9115195076518797</v>
+      </c>
+      <c r="S19">
+        <v>0.9115195076518797</v>
+      </c>
+      <c r="T19">
+        <v>1.283004468726391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9708199658338842</v>
+      </c>
+      <c r="D20">
+        <v>1.07708804696794</v>
+      </c>
+      <c r="E20">
+        <v>1.028948896914294</v>
+      </c>
+      <c r="F20">
+        <v>0.9925783898153214</v>
+      </c>
+      <c r="G20">
+        <v>1.07708804696794</v>
+      </c>
+      <c r="H20">
+        <v>1.000673701368521</v>
+      </c>
+      <c r="I20">
+        <v>0.990559000580545</v>
+      </c>
+      <c r="J20">
+        <v>1.000673701368521</v>
+      </c>
+      <c r="K20">
+        <v>1.07708804696794</v>
+      </c>
+      <c r="L20">
+        <v>0.990559000580545</v>
+      </c>
+      <c r="M20">
+        <v>0.9956163509745328</v>
+      </c>
+      <c r="N20">
+        <v>0.9956163509745328</v>
+      </c>
+      <c r="O20">
+        <v>0.9946036972547957</v>
+      </c>
+      <c r="P20">
+        <v>1.022773582972335</v>
+      </c>
+      <c r="Q20">
+        <v>1.022773582972335</v>
+      </c>
+      <c r="R20">
+        <v>1.036352198971236</v>
+      </c>
+      <c r="S20">
+        <v>1.036352198971236</v>
+      </c>
+      <c r="T20">
+        <v>1.010111333580084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9760029666537953</v>
+      </c>
+      <c r="D21">
+        <v>0.9833262660746653</v>
+      </c>
+      <c r="E21">
+        <v>1.102137910282777</v>
+      </c>
+      <c r="F21">
+        <v>0.9861571606660212</v>
+      </c>
+      <c r="G21">
+        <v>0.9833262660746653</v>
+      </c>
+      <c r="H21">
+        <v>1.020796476260661</v>
+      </c>
+      <c r="I21">
+        <v>1.045102575412123</v>
+      </c>
+      <c r="J21">
+        <v>1.020796476260661</v>
+      </c>
+      <c r="K21">
+        <v>0.9833262660746653</v>
+      </c>
+      <c r="L21">
+        <v>1.045102575412123</v>
+      </c>
+      <c r="M21">
+        <v>1.032949525836392</v>
+      </c>
+      <c r="N21">
+        <v>1.032949525836392</v>
+      </c>
+      <c r="O21">
+        <v>1.017352070779602</v>
+      </c>
+      <c r="P21">
+        <v>1.016408439249149</v>
+      </c>
+      <c r="Q21">
+        <v>1.016408439249149</v>
+      </c>
+      <c r="R21">
+        <v>1.008137895955528</v>
+      </c>
+      <c r="S21">
+        <v>1.008137895955528</v>
+      </c>
+      <c r="T21">
+        <v>1.018920559225007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9180545184918734</v>
+      </c>
+      <c r="D22">
+        <v>1.311732626446619</v>
+      </c>
+      <c r="E22">
+        <v>1.532752231800474</v>
+      </c>
+      <c r="F22">
+        <v>0.9751002034368693</v>
+      </c>
+      <c r="G22">
+        <v>1.311732626446619</v>
+      </c>
+      <c r="H22">
+        <v>0.9917374879809603</v>
+      </c>
+      <c r="I22">
+        <v>1.266352797804681</v>
+      </c>
+      <c r="J22">
+        <v>0.9917374879809603</v>
+      </c>
+      <c r="K22">
+        <v>1.311732626446619</v>
+      </c>
+      <c r="L22">
+        <v>1.266352797804681</v>
+      </c>
+      <c r="M22">
+        <v>1.129045142892821</v>
+      </c>
+      <c r="N22">
+        <v>1.129045142892821</v>
+      </c>
+      <c r="O22">
+        <v>1.07773016307417</v>
+      </c>
+      <c r="P22">
+        <v>1.189940970744087</v>
+      </c>
+      <c r="Q22">
+        <v>1.189940970744087</v>
+      </c>
+      <c r="R22">
+        <v>1.22038888466972</v>
+      </c>
+      <c r="S22">
+        <v>1.22038888466972</v>
+      </c>
+      <c r="T22">
+        <v>1.165954977660246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7952729918197989</v>
+      </c>
+      <c r="D23">
         <v>3.407038994376164</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.152241021777958</v>
+      </c>
+      <c r="F23">
+        <v>0.8823535581277999</v>
+      </c>
+      <c r="G23">
+        <v>3.407038994376164</v>
+      </c>
+      <c r="H23">
         <v>1.24463338787236</v>
       </c>
-      <c r="E19">
+      <c r="I23">
         <v>0.8594745491258229</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>1.24463338787236</v>
+      </c>
+      <c r="K23">
         <v>3.407038994376164</v>
       </c>
-      <c r="G19">
-        <v>1.152241021777958</v>
-      </c>
-      <c r="H19">
-        <v>0.8823535581277999</v>
-      </c>
-      <c r="I19">
-        <v>0.7952729918197989</v>
-      </c>
-      <c r="J19">
-        <v>1.24463338787236</v>
-      </c>
-      <c r="K19">
-        <v>3.407038994376164</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.8594745491258229</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.052053968499091</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.052053968499091</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9954871650419944</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.837048977124782</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.837048977124782</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>2.229546481437628</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>2.229546481437628</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.390169083849984</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/O554F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.003784579615898</v>
+        <v>0.9199085696396805</v>
       </c>
       <c r="D3">
-        <v>1.198956928914485</v>
+        <v>1.011897913183522</v>
       </c>
       <c r="E3">
-        <v>0.985694152104294</v>
+        <v>2.441112611192259</v>
       </c>
       <c r="F3">
-        <v>0.9290351252787633</v>
+        <v>0.7483520581149573</v>
       </c>
       <c r="G3">
-        <v>1.198956928914485</v>
+        <v>1.011897913183522</v>
       </c>
       <c r="H3">
-        <v>0.9745254296422358</v>
+        <v>0.8207730248272439</v>
       </c>
       <c r="I3">
-        <v>1.022518592558583</v>
+        <v>1.021861114168946</v>
       </c>
       <c r="J3">
-        <v>0.9745254296422358</v>
+        <v>0.8207730248272439</v>
       </c>
       <c r="K3">
-        <v>1.198956928914485</v>
+        <v>1.011897913183522</v>
       </c>
       <c r="L3">
-        <v>1.022518592558583</v>
+        <v>1.021861114168946</v>
       </c>
       <c r="M3">
-        <v>0.9985220111004092</v>
+        <v>0.9213170694980948</v>
       </c>
       <c r="N3">
-        <v>0.9985220111004092</v>
+        <v>0.9213170694980948</v>
       </c>
       <c r="O3">
-        <v>0.9753597158265271</v>
+        <v>0.8636620657037156</v>
       </c>
       <c r="P3">
-        <v>1.065333650371768</v>
+        <v>0.951510684059904</v>
       </c>
       <c r="Q3">
-        <v>1.065333650371768</v>
+        <v>0.951510684059904</v>
       </c>
       <c r="R3">
-        <v>1.098739470007447</v>
+        <v>0.9666074913408085</v>
       </c>
       <c r="S3">
-        <v>1.098739470007447</v>
+        <v>0.9666074913408085</v>
       </c>
       <c r="T3">
-        <v>1.019085801352376</v>
+        <v>1.160650881854435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9855017272006866</v>
+        <v>0.9295053967964086</v>
       </c>
       <c r="D4">
-        <v>1.229205207027086</v>
+        <v>0.9648220235893429</v>
       </c>
       <c r="E4">
-        <v>1.083309460784969</v>
+        <v>2.384452147965126</v>
       </c>
       <c r="F4">
-        <v>0.8406442455800632</v>
+        <v>0.7743201554800717</v>
       </c>
       <c r="G4">
-        <v>1.229205207027086</v>
+        <v>0.9648220235893429</v>
       </c>
       <c r="H4">
-        <v>0.9058005671829026</v>
+        <v>0.7988253646728901</v>
       </c>
       <c r="I4">
-        <v>1.050702399134384</v>
+        <v>1.010485764255023</v>
       </c>
       <c r="J4">
-        <v>0.9058005671829026</v>
+        <v>0.7988253646728901</v>
       </c>
       <c r="K4">
-        <v>1.229205207027086</v>
+        <v>0.9648220235893429</v>
       </c>
       <c r="L4">
-        <v>1.050702399134384</v>
+        <v>1.010485764255023</v>
       </c>
       <c r="M4">
-        <v>0.9782514831586435</v>
+        <v>0.9046555644639565</v>
       </c>
       <c r="N4">
-        <v>0.9782514831586435</v>
+        <v>0.9046555644639565</v>
       </c>
       <c r="O4">
-        <v>0.9323824039657834</v>
+        <v>0.8612104281359949</v>
       </c>
       <c r="P4">
-        <v>1.061902724448124</v>
+        <v>0.9247110508390852</v>
       </c>
       <c r="Q4">
-        <v>1.061902724448124</v>
+        <v>0.9247110508390852</v>
       </c>
       <c r="R4">
-        <v>1.103728345092865</v>
+        <v>0.9347387940266496</v>
       </c>
       <c r="S4">
-        <v>1.103728345092865</v>
+        <v>0.9347387940266496</v>
       </c>
       <c r="T4">
-        <v>1.015860601151682</v>
+        <v>1.143735142126477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.533747425146995</v>
+        <v>0.7401526599994607</v>
       </c>
       <c r="D5">
-        <v>2.790048211794486</v>
+        <v>1.657311380262804</v>
       </c>
       <c r="E5">
-        <v>1.236940881419772</v>
+        <v>1.079335697479298</v>
       </c>
       <c r="F5">
-        <v>0.6747133034281512</v>
+        <v>0.5560301967214554</v>
       </c>
       <c r="G5">
-        <v>2.790048211794486</v>
+        <v>1.657311380262804</v>
       </c>
       <c r="H5">
-        <v>0.8981964778586757</v>
+        <v>1.337046059901776</v>
       </c>
       <c r="I5">
-        <v>1.295461500438941</v>
+        <v>0.7816551482471167</v>
       </c>
       <c r="J5">
-        <v>0.8981964778586757</v>
+        <v>1.337046059901776</v>
       </c>
       <c r="K5">
-        <v>2.790048211794486</v>
+        <v>1.657311380262804</v>
       </c>
       <c r="L5">
-        <v>1.295461500438941</v>
+        <v>0.7816551482471167</v>
       </c>
       <c r="M5">
-        <v>1.096828989148808</v>
+        <v>1.059350604074446</v>
       </c>
       <c r="N5">
-        <v>1.096828989148808</v>
+        <v>1.059350604074446</v>
       </c>
       <c r="O5">
-        <v>0.9561237605752559</v>
+        <v>0.8915771349567828</v>
       </c>
       <c r="P5">
-        <v>1.661235396697368</v>
+        <v>1.258670862803899</v>
       </c>
       <c r="Q5">
-        <v>1.661235396697368</v>
+        <v>1.258670862803899</v>
       </c>
       <c r="R5">
-        <v>1.943438600471648</v>
+        <v>1.358330992168625</v>
       </c>
       <c r="S5">
-        <v>1.943438600471648</v>
+        <v>1.358330992168625</v>
       </c>
       <c r="T5">
-        <v>1.404851300014504</v>
+        <v>1.025255190435319</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4171846513923382</v>
+        <v>0.7535302821085789</v>
       </c>
       <c r="D6">
-        <v>4.825829990993068</v>
+        <v>2.556298399116363</v>
       </c>
       <c r="E6">
-        <v>2.524912185616423</v>
+        <v>2.043591611984034</v>
       </c>
       <c r="F6">
-        <v>0.6127746093348216</v>
+        <v>0.759697253608977</v>
       </c>
       <c r="G6">
-        <v>4.825829990993068</v>
+        <v>2.556298399116363</v>
       </c>
       <c r="H6">
-        <v>1.074050880238122</v>
+        <v>2.012745857586249</v>
       </c>
       <c r="I6">
-        <v>3.459388475871675</v>
+        <v>1.347636456001818</v>
       </c>
       <c r="J6">
-        <v>1.074050880238122</v>
+        <v>2.012745857586249</v>
       </c>
       <c r="K6">
-        <v>4.825829990993068</v>
+        <v>2.556298399116363</v>
       </c>
       <c r="L6">
-        <v>3.459388475871675</v>
+        <v>1.347636456001818</v>
       </c>
       <c r="M6">
-        <v>2.266719678054899</v>
+        <v>1.680191156794034</v>
       </c>
       <c r="N6">
-        <v>2.266719678054899</v>
+        <v>1.680191156794034</v>
       </c>
       <c r="O6">
-        <v>1.715404655148206</v>
+        <v>1.373359855732348</v>
       </c>
       <c r="P6">
-        <v>3.119756449034288</v>
+        <v>1.97222690423481</v>
       </c>
       <c r="Q6">
-        <v>3.119756449034288</v>
+        <v>1.97222690423481</v>
       </c>
       <c r="R6">
-        <v>3.546274834523983</v>
+        <v>2.118244777955198</v>
       </c>
       <c r="S6">
-        <v>3.546274834523983</v>
+        <v>2.118244777955198</v>
       </c>
       <c r="T6">
-        <v>2.152356798907741</v>
+        <v>1.578916643401003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9869110034252683</v>
+        <v>-0.007066623411786788</v>
       </c>
       <c r="D7">
-        <v>1.05659142629276</v>
+        <v>3.944023638222494</v>
       </c>
       <c r="E7">
-        <v>1.014327712439994</v>
+        <v>9.340954355400596</v>
       </c>
       <c r="F7">
-        <v>0.985609680612648</v>
+        <v>0.002084454335620149</v>
       </c>
       <c r="G7">
-        <v>1.05659142629276</v>
+        <v>3.944023638222494</v>
       </c>
       <c r="H7">
-        <v>0.978835339747369</v>
+        <v>7.897862482480742</v>
       </c>
       <c r="I7">
-        <v>0.9953687715378418</v>
+        <v>3.94027801872148</v>
       </c>
       <c r="J7">
-        <v>0.978835339747369</v>
+        <v>7.897862482480742</v>
       </c>
       <c r="K7">
-        <v>1.05659142629276</v>
+        <v>3.944023638222494</v>
       </c>
       <c r="L7">
-        <v>0.9953687715378418</v>
+        <v>3.94027801872148</v>
       </c>
       <c r="M7">
-        <v>0.9871020556426053</v>
+        <v>5.919070250601111</v>
       </c>
       <c r="N7">
-        <v>0.9871020556426053</v>
+        <v>5.919070250601111</v>
       </c>
       <c r="O7">
-        <v>0.9866045972992863</v>
+        <v>3.946741651845947</v>
       </c>
       <c r="P7">
-        <v>1.010265179192657</v>
+        <v>5.260721379808239</v>
       </c>
       <c r="Q7">
-        <v>1.010265179192657</v>
+        <v>5.260721379808238</v>
       </c>
       <c r="R7">
-        <v>1.021846740967683</v>
+        <v>4.931546944411802</v>
       </c>
       <c r="S7">
-        <v>1.021846740967683</v>
+        <v>4.931546944411802</v>
       </c>
       <c r="T7">
-        <v>1.00294065567598</v>
+        <v>4.186356054291523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9741253495393569</v>
+        <v>-0.00702771271056971</v>
       </c>
       <c r="D8">
-        <v>1.06313633568694</v>
+        <v>3.919014966575007</v>
       </c>
       <c r="E8">
-        <v>1.038464879687079</v>
+        <v>9.499533717428294</v>
       </c>
       <c r="F8">
-        <v>0.9814091405476436</v>
+        <v>0.002086029583255372</v>
       </c>
       <c r="G8">
-        <v>1.06313633568694</v>
+        <v>3.919014966575007</v>
       </c>
       <c r="H8">
-        <v>0.9869361729295402</v>
+        <v>7.858732316483803</v>
       </c>
       <c r="I8">
-        <v>0.9910588625093565</v>
+        <v>3.92108801749827</v>
       </c>
       <c r="J8">
-        <v>0.9869361729295402</v>
+        <v>7.858732316483803</v>
       </c>
       <c r="K8">
-        <v>1.06313633568694</v>
+        <v>3.919014966575007</v>
       </c>
       <c r="L8">
-        <v>0.9910588625093565</v>
+        <v>3.92108801749827</v>
       </c>
       <c r="M8">
-        <v>0.9889975177194483</v>
+        <v>5.889910166991037</v>
       </c>
       <c r="N8">
-        <v>0.9889975177194483</v>
+        <v>5.889910166991037</v>
       </c>
       <c r="O8">
-        <v>0.98646805866218</v>
+        <v>3.927302121188443</v>
       </c>
       <c r="P8">
-        <v>1.013710457041946</v>
+        <v>5.232945100185693</v>
       </c>
       <c r="Q8">
-        <v>1.013710457041946</v>
+        <v>5.232945100185693</v>
       </c>
       <c r="R8">
-        <v>1.026066926703194</v>
+        <v>4.904462566783021</v>
       </c>
       <c r="S8">
-        <v>1.026066926703194</v>
+        <v>4.904462566783021</v>
       </c>
       <c r="T8">
-        <v>1.005855123483319</v>
+        <v>4.198904555809676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.948340653761006</v>
+        <v>-0.007001908164170482</v>
       </c>
       <c r="D9">
-        <v>1.256306514237563</v>
+        <v>3.897503190352035</v>
       </c>
       <c r="E9">
-        <v>0.9836270183077838</v>
+        <v>9.549754153650534</v>
       </c>
       <c r="F9">
-        <v>1.007414174082142</v>
+        <v>0.002069711999146875</v>
       </c>
       <c r="G9">
-        <v>1.256306514237563</v>
+        <v>3.897503190352035</v>
       </c>
       <c r="H9">
-        <v>0.9553312199285813</v>
+        <v>7.838228405356339</v>
       </c>
       <c r="I9">
-        <v>1.064984415219423</v>
+        <v>3.904435801363174</v>
       </c>
       <c r="J9">
-        <v>0.9553312199285813</v>
+        <v>7.838228405356339</v>
       </c>
       <c r="K9">
-        <v>1.256306514237563</v>
+        <v>3.897503190352035</v>
       </c>
       <c r="L9">
-        <v>1.064984415219423</v>
+        <v>3.904435801363174</v>
       </c>
       <c r="M9">
-        <v>1.010157817574002</v>
+        <v>5.871332103359757</v>
       </c>
       <c r="N9">
-        <v>1.010157817574002</v>
+        <v>5.871332103359757</v>
       </c>
       <c r="O9">
-        <v>1.009243269743382</v>
+        <v>3.914911306239553</v>
       </c>
       <c r="P9">
-        <v>1.092207383128522</v>
+        <v>5.213389132357183</v>
       </c>
       <c r="Q9">
-        <v>1.092207383128523</v>
+        <v>5.213389132357182</v>
       </c>
       <c r="R9">
-        <v>1.133232165905782</v>
+        <v>4.884417646855895</v>
       </c>
       <c r="S9">
-        <v>1.133232165905782</v>
+        <v>4.884417646855895</v>
       </c>
       <c r="T9">
-        <v>1.03600066592275</v>
+        <v>4.197498225759509</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.221239141972095</v>
+        <v>-0.006970065780679685</v>
       </c>
       <c r="D10">
-        <v>1.542802950508848</v>
+        <v>3.826597176447207</v>
       </c>
       <c r="E10">
-        <v>1.004363736920123</v>
+        <v>9.526655042148301</v>
       </c>
       <c r="F10">
-        <v>1.008821240498856</v>
+        <v>0.002171952956823531</v>
       </c>
       <c r="G10">
-        <v>1.542802950508848</v>
+        <v>3.826597176447207</v>
       </c>
       <c r="H10">
-        <v>0.8778156391141844</v>
+        <v>7.739101386674575</v>
       </c>
       <c r="I10">
-        <v>1.142119864857981</v>
+        <v>3.857186213633525</v>
       </c>
       <c r="J10">
-        <v>0.8778156391141844</v>
+        <v>7.739101386674575</v>
       </c>
       <c r="K10">
-        <v>1.542802950508848</v>
+        <v>3.826597176447207</v>
       </c>
       <c r="L10">
-        <v>1.142119864857981</v>
+        <v>3.857186213633525</v>
       </c>
       <c r="M10">
-        <v>1.009967751986083</v>
+        <v>5.79814380015405</v>
       </c>
       <c r="N10">
-        <v>1.009967751986083</v>
+        <v>5.79814380015405</v>
       </c>
       <c r="O10">
-        <v>1.009585581490341</v>
+        <v>3.866153184421641</v>
       </c>
       <c r="P10">
-        <v>1.187579484827004</v>
+        <v>5.140961592251769</v>
       </c>
       <c r="Q10">
-        <v>1.187579484827004</v>
+        <v>5.140961592251769</v>
       </c>
       <c r="R10">
-        <v>1.276385351247465</v>
+        <v>4.812370488300628</v>
       </c>
       <c r="S10">
-        <v>1.276385351247465</v>
+        <v>4.812370488300628</v>
       </c>
       <c r="T10">
-        <v>1.132860428978681</v>
+        <v>4.157456951013292</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8219022401342856</v>
+        <v>1.012935254936239</v>
       </c>
       <c r="D11">
-        <v>1.703762906936088</v>
+        <v>1.228454978911484</v>
       </c>
       <c r="E11">
-        <v>1.229792736033029</v>
+        <v>0.9888178794698183</v>
       </c>
       <c r="F11">
-        <v>1.278024463930689</v>
+        <v>0.9452350798841616</v>
       </c>
       <c r="G11">
-        <v>1.703762906936088</v>
+        <v>1.228454978911484</v>
       </c>
       <c r="H11">
-        <v>1.46522043140606</v>
+        <v>0.9793871428790225</v>
       </c>
       <c r="I11">
-        <v>1.268500628744413</v>
+        <v>1.029692699289698</v>
       </c>
       <c r="J11">
-        <v>1.46522043140606</v>
+        <v>0.9793871428790225</v>
       </c>
       <c r="K11">
-        <v>1.703762906936088</v>
+        <v>1.228454978911484</v>
       </c>
       <c r="L11">
-        <v>1.268500628744413</v>
+        <v>1.029692699289698</v>
       </c>
       <c r="M11">
-        <v>1.366860530075237</v>
+        <v>1.00453992108436</v>
       </c>
       <c r="N11">
-        <v>1.366860530075237</v>
+        <v>1.00453992108436</v>
       </c>
       <c r="O11">
-        <v>1.337248508027054</v>
+        <v>0.9847716406842938</v>
       </c>
       <c r="P11">
-        <v>1.479161322362187</v>
+        <v>1.079178273693401</v>
       </c>
       <c r="Q11">
-        <v>1.479161322362187</v>
+        <v>1.079178273693401</v>
       </c>
       <c r="R11">
-        <v>1.535311718505662</v>
+        <v>1.116497449997922</v>
       </c>
       <c r="S11">
-        <v>1.535311718505662</v>
+        <v>1.116497449997922</v>
       </c>
       <c r="T11">
-        <v>1.294533901197428</v>
+        <v>1.030753839228404</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9552687975429606</v>
+        <v>0.9952589070180776</v>
       </c>
       <c r="D12">
-        <v>0.3764207645814031</v>
+        <v>1.120996695482229</v>
       </c>
       <c r="E12">
-        <v>0.0006892505686102717</v>
+        <v>1.036356832099067</v>
       </c>
       <c r="F12">
-        <v>0.0277853058582506</v>
+        <v>0.9666972271807465</v>
       </c>
       <c r="G12">
-        <v>0.3764207645814031</v>
+        <v>1.120996695482229</v>
       </c>
       <c r="H12">
-        <v>0.005483698228616214</v>
+        <v>1.025739889307212</v>
       </c>
       <c r="I12">
-        <v>0.002206662561325237</v>
+        <v>1.016931704836306</v>
       </c>
       <c r="J12">
-        <v>0.005483698228616214</v>
+        <v>1.025739889307212</v>
       </c>
       <c r="K12">
-        <v>0.3764207645814031</v>
+        <v>1.120996695482229</v>
       </c>
       <c r="L12">
-        <v>0.002206662561325237</v>
+        <v>1.016931704836306</v>
       </c>
       <c r="M12">
-        <v>0.003845180394970726</v>
+        <v>1.021335797071759</v>
       </c>
       <c r="N12">
-        <v>0.003845180394970726</v>
+        <v>1.021335797071759</v>
       </c>
       <c r="O12">
-        <v>0.01182522221606402</v>
+        <v>1.003122940441422</v>
       </c>
       <c r="P12">
-        <v>0.1280370417904482</v>
+        <v>1.054556096541916</v>
       </c>
       <c r="Q12">
-        <v>0.1280370417904482</v>
+        <v>1.054556096541916</v>
       </c>
       <c r="R12">
-        <v>0.1901329724881869</v>
+        <v>1.071166246276994</v>
       </c>
       <c r="S12">
-        <v>0.1901329724881869</v>
+        <v>1.071166246276994</v>
       </c>
       <c r="T12">
-        <v>0.227975746556861</v>
+        <v>1.026996875987273</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7456461477609715</v>
+        <v>0.8000060149937217</v>
       </c>
       <c r="D13">
-        <v>1.523696846253132</v>
+        <v>2.255437131154709</v>
       </c>
       <c r="E13">
-        <v>0.3073287146593363</v>
+        <v>0.4110075500228</v>
       </c>
       <c r="F13">
-        <v>1.559396370878425</v>
+        <v>0.8148136585358733</v>
       </c>
       <c r="G13">
-        <v>1.523696846253132</v>
+        <v>2.255437131154709</v>
       </c>
       <c r="H13">
-        <v>1.082404912359243</v>
+        <v>1.766598428051101</v>
       </c>
       <c r="I13">
-        <v>2.045999093377911</v>
+        <v>0.7978346924997008</v>
       </c>
       <c r="J13">
-        <v>1.082404912359243</v>
+        <v>1.766598428051101</v>
       </c>
       <c r="K13">
-        <v>1.523696846253132</v>
+        <v>2.255437131154709</v>
       </c>
       <c r="L13">
-        <v>2.045999093377911</v>
+        <v>0.7978346924997008</v>
       </c>
       <c r="M13">
-        <v>1.564202002868577</v>
+        <v>1.282216560275401</v>
       </c>
       <c r="N13">
-        <v>1.564202002868577</v>
+        <v>1.282216560275401</v>
       </c>
       <c r="O13">
-        <v>1.562600125538526</v>
+        <v>1.126415593028892</v>
       </c>
       <c r="P13">
-        <v>1.550700283996762</v>
+        <v>1.606623417235171</v>
       </c>
       <c r="Q13">
-        <v>1.550700283996762</v>
+        <v>1.606623417235171</v>
       </c>
       <c r="R13">
-        <v>1.543949424560854</v>
+        <v>1.768826845715055</v>
       </c>
       <c r="S13">
-        <v>1.543949424560854</v>
+        <v>1.768826845715055</v>
       </c>
       <c r="T13">
-        <v>1.21074534754817</v>
+        <v>1.140949579209651</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.335693275330806</v>
+        <v>0.6985777211799651</v>
       </c>
       <c r="D14">
-        <v>0.002603914104267074</v>
+        <v>3.761658316849751</v>
       </c>
       <c r="E14">
-        <v>0.0005068676749151764</v>
+        <v>1.02818928996817</v>
       </c>
       <c r="F14">
-        <v>1.434730850753292</v>
+        <v>0.8503177402825446</v>
       </c>
       <c r="G14">
-        <v>0.002603914104267074</v>
+        <v>3.761658316849751</v>
       </c>
       <c r="H14">
-        <v>0.006894729762544905</v>
+        <v>1.22021061781035</v>
       </c>
       <c r="I14">
-        <v>0.3375906547800657</v>
+        <v>1.302610298504274</v>
       </c>
       <c r="J14">
-        <v>0.006894729762544905</v>
+        <v>1.22021061781035</v>
       </c>
       <c r="K14">
-        <v>0.002603914104267074</v>
+        <v>3.761658316849751</v>
       </c>
       <c r="L14">
-        <v>0.3375906547800657</v>
+        <v>1.302610298504274</v>
       </c>
       <c r="M14">
-        <v>0.1722426922713053</v>
+        <v>1.261410458157312</v>
       </c>
       <c r="N14">
-        <v>0.1722426922713053</v>
+        <v>1.261410458157312</v>
       </c>
       <c r="O14">
-        <v>0.5930720784319675</v>
+        <v>1.124379552199056</v>
       </c>
       <c r="P14">
-        <v>0.1156964328822926</v>
+        <v>2.094826411054792</v>
       </c>
       <c r="Q14">
-        <v>0.1156964328822926</v>
+        <v>2.094826411054792</v>
       </c>
       <c r="R14">
-        <v>0.0874233031877862</v>
+        <v>2.511534387503532</v>
       </c>
       <c r="S14">
-        <v>0.0874233031877862</v>
+        <v>2.511534387503532</v>
       </c>
       <c r="T14">
-        <v>0.519670048734315</v>
+        <v>1.476927330765842</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.369073266138435</v>
+        <v>1.003784579615898</v>
       </c>
       <c r="D15">
-        <v>1.260253285487143</v>
+        <v>1.198956928914485</v>
       </c>
       <c r="E15">
-        <v>0.004710178862046044</v>
+        <v>0.985694152104294</v>
       </c>
       <c r="F15">
-        <v>1.570692271962322</v>
+        <v>0.9290351252787633</v>
       </c>
       <c r="G15">
-        <v>1.260253285487143</v>
+        <v>1.198956928914485</v>
       </c>
       <c r="H15">
-        <v>4.558166583797326</v>
+        <v>0.9745254296422358</v>
       </c>
       <c r="I15">
-        <v>0.5673480213445826</v>
+        <v>1.022518592558583</v>
       </c>
       <c r="J15">
-        <v>4.558166583797326</v>
+        <v>0.9745254296422358</v>
       </c>
       <c r="K15">
-        <v>1.260253285487143</v>
+        <v>1.198956928914485</v>
       </c>
       <c r="L15">
-        <v>0.5673480213445826</v>
+        <v>1.022518592558583</v>
       </c>
       <c r="M15">
-        <v>2.562757302570954</v>
+        <v>0.9985220111004092</v>
       </c>
       <c r="N15">
-        <v>2.562757302570954</v>
+        <v>0.9985220111004092</v>
       </c>
       <c r="O15">
-        <v>2.232068959034744</v>
+        <v>0.9753597158265271</v>
       </c>
       <c r="P15">
-        <v>2.128589296876351</v>
+        <v>1.065333650371768</v>
       </c>
       <c r="Q15">
-        <v>2.12858929687635</v>
+        <v>1.065333650371768</v>
       </c>
       <c r="R15">
-        <v>1.911505294029049</v>
+        <v>1.098739470007447</v>
       </c>
       <c r="S15">
-        <v>1.911505294029049</v>
+        <v>1.098739470007447</v>
       </c>
       <c r="T15">
-        <v>1.555040601265309</v>
+        <v>1.019085801352376</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.488645022739878</v>
+        <v>0.9855017272006866</v>
       </c>
       <c r="D16">
-        <v>3.426033666153096</v>
+        <v>1.229205207027086</v>
       </c>
       <c r="E16">
-        <v>0.5812004123584811</v>
+        <v>1.083309460784969</v>
       </c>
       <c r="F16">
-        <v>0.1991708008310578</v>
+        <v>0.8406442455800632</v>
       </c>
       <c r="G16">
-        <v>3.426033666153096</v>
+        <v>1.229205207027086</v>
       </c>
       <c r="H16">
-        <v>0.1910839939485258</v>
+        <v>0.9058005671829026</v>
       </c>
       <c r="I16">
-        <v>1.4197879305157</v>
+        <v>1.050702399134384</v>
       </c>
       <c r="J16">
-        <v>0.1910839939485258</v>
+        <v>0.9058005671829026</v>
       </c>
       <c r="K16">
-        <v>3.426033666153096</v>
+        <v>1.229205207027086</v>
       </c>
       <c r="L16">
-        <v>1.4197879305157</v>
+        <v>1.050702399134384</v>
       </c>
       <c r="M16">
-        <v>0.8054359622321128</v>
+        <v>0.9782514831586435</v>
       </c>
       <c r="N16">
-        <v>0.8054359622321128</v>
+        <v>0.9782514831586435</v>
       </c>
       <c r="O16">
-        <v>0.6033475750984277</v>
+        <v>0.9323824039657834</v>
       </c>
       <c r="P16">
-        <v>1.678968530205774</v>
+        <v>1.061902724448124</v>
       </c>
       <c r="Q16">
-        <v>1.678968530205774</v>
+        <v>1.061902724448124</v>
       </c>
       <c r="R16">
-        <v>2.115734814192604</v>
+        <v>1.103728345092865</v>
       </c>
       <c r="S16">
-        <v>2.115734814192604</v>
+        <v>1.103728345092865</v>
       </c>
       <c r="T16">
-        <v>1.21765363775779</v>
+        <v>1.015860601151682</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.305105414384574</v>
+        <v>1.533747425146995</v>
       </c>
       <c r="D17">
-        <v>2.591395626811819</v>
+        <v>2.790048211794486</v>
       </c>
       <c r="E17">
-        <v>1.161056095939968</v>
+        <v>1.236940881419772</v>
       </c>
       <c r="F17">
-        <v>0.3979990805773068</v>
+        <v>0.6747133034281512</v>
       </c>
       <c r="G17">
-        <v>2.591395626811819</v>
+        <v>2.790048211794486</v>
       </c>
       <c r="H17">
-        <v>0.3837155811567308</v>
+        <v>0.8981964778586757</v>
       </c>
       <c r="I17">
-        <v>1.279088072864755</v>
+        <v>1.295461500438941</v>
       </c>
       <c r="J17">
-        <v>0.3837155811567308</v>
+        <v>0.8981964778586757</v>
       </c>
       <c r="K17">
-        <v>2.591395626811819</v>
+        <v>2.790048211794486</v>
       </c>
       <c r="L17">
-        <v>1.279088072864755</v>
+        <v>1.295461500438941</v>
       </c>
       <c r="M17">
-        <v>0.8314018270107428</v>
+        <v>1.096828989148808</v>
       </c>
       <c r="N17">
-        <v>0.8314018270107428</v>
+        <v>1.096828989148808</v>
       </c>
       <c r="O17">
-        <v>0.6869342448662641</v>
+        <v>0.9561237605752559</v>
       </c>
       <c r="P17">
-        <v>1.418066426944435</v>
+        <v>1.661235396697368</v>
       </c>
       <c r="Q17">
-        <v>1.418066426944435</v>
+        <v>1.661235396697368</v>
       </c>
       <c r="R17">
-        <v>1.711398726911281</v>
+        <v>1.943438600471648</v>
       </c>
       <c r="S17">
-        <v>1.711398726911281</v>
+        <v>1.943438600471648</v>
       </c>
       <c r="T17">
-        <v>1.186393311955859</v>
+        <v>1.404851300014504</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9925932602012733</v>
+        <v>0.4171846513923382</v>
       </c>
       <c r="D18">
-        <v>1.188863400472951</v>
+        <v>4.825829990993068</v>
       </c>
       <c r="E18">
-        <v>2.567029495307509</v>
+        <v>2.524912185616423</v>
       </c>
       <c r="F18">
-        <v>0.6318299856820022</v>
+        <v>0.6127746093348216</v>
       </c>
       <c r="G18">
-        <v>1.188863400472951</v>
+        <v>4.825829990993068</v>
       </c>
       <c r="H18">
-        <v>0.7489108049584494</v>
+        <v>1.074050880238122</v>
       </c>
       <c r="I18">
-        <v>1.21394983557345</v>
+        <v>3.459388475871675</v>
       </c>
       <c r="J18">
-        <v>0.7489108049584494</v>
+        <v>1.074050880238122</v>
       </c>
       <c r="K18">
-        <v>1.188863400472951</v>
+        <v>4.825829990993068</v>
       </c>
       <c r="L18">
-        <v>1.21394983557345</v>
+        <v>3.459388475871675</v>
       </c>
       <c r="M18">
-        <v>0.9814303202659497</v>
+        <v>2.266719678054899</v>
       </c>
       <c r="N18">
-        <v>0.9814303202659497</v>
+        <v>2.266719678054899</v>
       </c>
       <c r="O18">
-        <v>0.8648968754046339</v>
+        <v>1.715404655148206</v>
       </c>
       <c r="P18">
-        <v>1.05057468033495</v>
+        <v>3.119756449034288</v>
       </c>
       <c r="Q18">
-        <v>1.05057468033495</v>
+        <v>3.119756449034288</v>
       </c>
       <c r="R18">
-        <v>1.08514686036945</v>
+        <v>3.546274834523983</v>
       </c>
       <c r="S18">
-        <v>1.08514686036945</v>
+        <v>3.546274834523983</v>
       </c>
       <c r="T18">
-        <v>1.223862797032606</v>
+        <v>2.152356798907741</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000585640126407</v>
+        <v>0.9869110034252683</v>
       </c>
       <c r="D19">
-        <v>0.647829268021471</v>
+        <v>1.05659142629276</v>
       </c>
       <c r="E19">
-        <v>2.794843897185893</v>
+        <v>1.014327712439994</v>
       </c>
       <c r="F19">
-        <v>0.9043485124599977</v>
+        <v>0.985609680612648</v>
       </c>
       <c r="G19">
-        <v>0.647829268021471</v>
+        <v>1.05659142629276</v>
       </c>
       <c r="H19">
-        <v>1.473547287455297</v>
+        <v>0.978835339747369</v>
       </c>
       <c r="I19">
-        <v>0.8768722071092797</v>
+        <v>0.9953687715378418</v>
       </c>
       <c r="J19">
-        <v>1.473547287455297</v>
+        <v>0.978835339747369</v>
       </c>
       <c r="K19">
-        <v>0.647829268021471</v>
+        <v>1.05659142629276</v>
       </c>
       <c r="L19">
-        <v>0.8768722071092797</v>
+        <v>0.9953687715378418</v>
       </c>
       <c r="M19">
-        <v>1.175209747282288</v>
+        <v>0.9871020556426053</v>
       </c>
       <c r="N19">
-        <v>1.175209747282288</v>
+        <v>0.9871020556426053</v>
       </c>
       <c r="O19">
-        <v>1.084922669008191</v>
+        <v>0.9866045972992863</v>
       </c>
       <c r="P19">
-        <v>0.9994162541953493</v>
+        <v>1.010265179192657</v>
       </c>
       <c r="Q19">
-        <v>0.9994162541953493</v>
+        <v>1.010265179192657</v>
       </c>
       <c r="R19">
-        <v>0.9115195076518797</v>
+        <v>1.021846740967683</v>
       </c>
       <c r="S19">
-        <v>0.9115195076518797</v>
+        <v>1.021846740967683</v>
       </c>
       <c r="T19">
-        <v>1.283004468726391</v>
+        <v>1.00294065567598</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9708199658338842</v>
+        <v>0.9741253495393569</v>
       </c>
       <c r="D20">
-        <v>1.07708804696794</v>
+        <v>1.06313633568694</v>
       </c>
       <c r="E20">
-        <v>1.028948896914294</v>
+        <v>1.038464879687079</v>
       </c>
       <c r="F20">
-        <v>0.9925783898153214</v>
+        <v>0.9814091405476436</v>
       </c>
       <c r="G20">
-        <v>1.07708804696794</v>
+        <v>1.06313633568694</v>
       </c>
       <c r="H20">
-        <v>1.000673701368521</v>
+        <v>0.9869361729295402</v>
       </c>
       <c r="I20">
-        <v>0.990559000580545</v>
+        <v>0.9910588625093565</v>
       </c>
       <c r="J20">
-        <v>1.000673701368521</v>
+        <v>0.9869361729295402</v>
       </c>
       <c r="K20">
-        <v>1.07708804696794</v>
+        <v>1.06313633568694</v>
       </c>
       <c r="L20">
-        <v>0.990559000580545</v>
+        <v>0.9910588625093565</v>
       </c>
       <c r="M20">
-        <v>0.9956163509745328</v>
+        <v>0.9889975177194483</v>
       </c>
       <c r="N20">
-        <v>0.9956163509745328</v>
+        <v>0.9889975177194483</v>
       </c>
       <c r="O20">
-        <v>0.9946036972547957</v>
+        <v>0.98646805866218</v>
       </c>
       <c r="P20">
-        <v>1.022773582972335</v>
+        <v>1.013710457041946</v>
       </c>
       <c r="Q20">
-        <v>1.022773582972335</v>
+        <v>1.013710457041946</v>
       </c>
       <c r="R20">
-        <v>1.036352198971236</v>
+        <v>1.026066926703194</v>
       </c>
       <c r="S20">
-        <v>1.036352198971236</v>
+        <v>1.026066926703194</v>
       </c>
       <c r="T20">
-        <v>1.010111333580084</v>
+        <v>1.005855123483319</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9760029666537953</v>
+        <v>0.948340653761006</v>
       </c>
       <c r="D21">
-        <v>0.9833262660746653</v>
+        <v>1.256306514237563</v>
       </c>
       <c r="E21">
-        <v>1.102137910282777</v>
+        <v>0.9836270183077838</v>
       </c>
       <c r="F21">
-        <v>0.9861571606660212</v>
+        <v>1.007414174082142</v>
       </c>
       <c r="G21">
-        <v>0.9833262660746653</v>
+        <v>1.256306514237563</v>
       </c>
       <c r="H21">
-        <v>1.020796476260661</v>
+        <v>0.9553312199285813</v>
       </c>
       <c r="I21">
-        <v>1.045102575412123</v>
+        <v>1.064984415219423</v>
       </c>
       <c r="J21">
-        <v>1.020796476260661</v>
+        <v>0.9553312199285813</v>
       </c>
       <c r="K21">
-        <v>0.9833262660746653</v>
+        <v>1.256306514237563</v>
       </c>
       <c r="L21">
-        <v>1.045102575412123</v>
+        <v>1.064984415219423</v>
       </c>
       <c r="M21">
-        <v>1.032949525836392</v>
+        <v>1.010157817574002</v>
       </c>
       <c r="N21">
-        <v>1.032949525836392</v>
+        <v>1.010157817574002</v>
       </c>
       <c r="O21">
-        <v>1.017352070779602</v>
+        <v>1.009243269743382</v>
       </c>
       <c r="P21">
-        <v>1.016408439249149</v>
+        <v>1.092207383128522</v>
       </c>
       <c r="Q21">
-        <v>1.016408439249149</v>
+        <v>1.092207383128523</v>
       </c>
       <c r="R21">
-        <v>1.008137895955528</v>
+        <v>1.133232165905782</v>
       </c>
       <c r="S21">
-        <v>1.008137895955528</v>
+        <v>1.133232165905782</v>
       </c>
       <c r="T21">
-        <v>1.018920559225007</v>
+        <v>1.03600066592275</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9180545184918734</v>
+        <v>1.221239141972095</v>
       </c>
       <c r="D22">
-        <v>1.311732626446619</v>
+        <v>1.542802950508848</v>
       </c>
       <c r="E22">
-        <v>1.532752231800474</v>
+        <v>1.004363736920123</v>
       </c>
       <c r="F22">
-        <v>0.9751002034368693</v>
+        <v>1.008821240498856</v>
       </c>
       <c r="G22">
-        <v>1.311732626446619</v>
+        <v>1.542802950508848</v>
       </c>
       <c r="H22">
-        <v>0.9917374879809603</v>
+        <v>0.8778156391141844</v>
       </c>
       <c r="I22">
-        <v>1.266352797804681</v>
+        <v>1.142119864857981</v>
       </c>
       <c r="J22">
-        <v>0.9917374879809603</v>
+        <v>0.8778156391141844</v>
       </c>
       <c r="K22">
-        <v>1.311732626446619</v>
+        <v>1.542802950508848</v>
       </c>
       <c r="L22">
-        <v>1.266352797804681</v>
+        <v>1.142119864857981</v>
       </c>
       <c r="M22">
-        <v>1.129045142892821</v>
+        <v>1.009967751986083</v>
       </c>
       <c r="N22">
-        <v>1.129045142892821</v>
+        <v>1.009967751986083</v>
       </c>
       <c r="O22">
-        <v>1.07773016307417</v>
+        <v>1.009585581490341</v>
       </c>
       <c r="P22">
-        <v>1.189940970744087</v>
+        <v>1.187579484827004</v>
       </c>
       <c r="Q22">
-        <v>1.189940970744087</v>
+        <v>1.187579484827004</v>
       </c>
       <c r="R22">
-        <v>1.22038888466972</v>
+        <v>1.276385351247465</v>
       </c>
       <c r="S22">
-        <v>1.22038888466972</v>
+        <v>1.276385351247465</v>
       </c>
       <c r="T22">
-        <v>1.165954977660246</v>
+        <v>1.132860428978681</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.8219022401342856</v>
+      </c>
+      <c r="D23">
+        <v>1.703762906936088</v>
+      </c>
+      <c r="E23">
+        <v>1.229792736033029</v>
+      </c>
+      <c r="F23">
+        <v>1.278024463930689</v>
+      </c>
+      <c r="G23">
+        <v>1.703762906936088</v>
+      </c>
+      <c r="H23">
+        <v>1.46522043140606</v>
+      </c>
+      <c r="I23">
+        <v>1.268500628744413</v>
+      </c>
+      <c r="J23">
+        <v>1.46522043140606</v>
+      </c>
+      <c r="K23">
+        <v>1.703762906936088</v>
+      </c>
+      <c r="L23">
+        <v>1.268500628744413</v>
+      </c>
+      <c r="M23">
+        <v>1.366860530075237</v>
+      </c>
+      <c r="N23">
+        <v>1.366860530075237</v>
+      </c>
+      <c r="O23">
+        <v>1.337248508027054</v>
+      </c>
+      <c r="P23">
+        <v>1.479161322362187</v>
+      </c>
+      <c r="Q23">
+        <v>1.479161322362187</v>
+      </c>
+      <c r="R23">
+        <v>1.535311718505662</v>
+      </c>
+      <c r="S23">
+        <v>1.535311718505662</v>
+      </c>
+      <c r="T23">
+        <v>1.294533901197428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9552687975429606</v>
+      </c>
+      <c r="D24">
+        <v>0.3764207645814031</v>
+      </c>
+      <c r="E24">
+        <v>0.0006892505686102717</v>
+      </c>
+      <c r="F24">
+        <v>0.0277853058582506</v>
+      </c>
+      <c r="G24">
+        <v>0.3764207645814031</v>
+      </c>
+      <c r="H24">
+        <v>0.005483698228616214</v>
+      </c>
+      <c r="I24">
+        <v>0.002206662561325237</v>
+      </c>
+      <c r="J24">
+        <v>0.005483698228616214</v>
+      </c>
+      <c r="K24">
+        <v>0.3764207645814031</v>
+      </c>
+      <c r="L24">
+        <v>0.002206662561325237</v>
+      </c>
+      <c r="M24">
+        <v>0.003845180394970726</v>
+      </c>
+      <c r="N24">
+        <v>0.003845180394970726</v>
+      </c>
+      <c r="O24">
+        <v>0.01182522221606402</v>
+      </c>
+      <c r="P24">
+        <v>0.1280370417904482</v>
+      </c>
+      <c r="Q24">
+        <v>0.1280370417904482</v>
+      </c>
+      <c r="R24">
+        <v>0.1901329724881869</v>
+      </c>
+      <c r="S24">
+        <v>0.1901329724881869</v>
+      </c>
+      <c r="T24">
+        <v>0.227975746556861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7456461477609715</v>
+      </c>
+      <c r="D25">
+        <v>1.523696846253132</v>
+      </c>
+      <c r="E25">
+        <v>0.3073287146593363</v>
+      </c>
+      <c r="F25">
+        <v>1.559396370878425</v>
+      </c>
+      <c r="G25">
+        <v>1.523696846253132</v>
+      </c>
+      <c r="H25">
+        <v>1.082404912359243</v>
+      </c>
+      <c r="I25">
+        <v>2.045999093377911</v>
+      </c>
+      <c r="J25">
+        <v>1.082404912359243</v>
+      </c>
+      <c r="K25">
+        <v>1.523696846253132</v>
+      </c>
+      <c r="L25">
+        <v>2.045999093377911</v>
+      </c>
+      <c r="M25">
+        <v>1.564202002868577</v>
+      </c>
+      <c r="N25">
+        <v>1.564202002868577</v>
+      </c>
+      <c r="O25">
+        <v>1.562600125538526</v>
+      </c>
+      <c r="P25">
+        <v>1.550700283996762</v>
+      </c>
+      <c r="Q25">
+        <v>1.550700283996762</v>
+      </c>
+      <c r="R25">
+        <v>1.543949424560854</v>
+      </c>
+      <c r="S25">
+        <v>1.543949424560854</v>
+      </c>
+      <c r="T25">
+        <v>1.21074534754817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.335693275330806</v>
+      </c>
+      <c r="D26">
+        <v>0.002603914104267074</v>
+      </c>
+      <c r="E26">
+        <v>0.0005068676749151764</v>
+      </c>
+      <c r="F26">
+        <v>1.434730850753292</v>
+      </c>
+      <c r="G26">
+        <v>0.002603914104267074</v>
+      </c>
+      <c r="H26">
+        <v>0.006894729762544905</v>
+      </c>
+      <c r="I26">
+        <v>0.3375906547800657</v>
+      </c>
+      <c r="J26">
+        <v>0.006894729762544905</v>
+      </c>
+      <c r="K26">
+        <v>0.002603914104267074</v>
+      </c>
+      <c r="L26">
+        <v>0.3375906547800657</v>
+      </c>
+      <c r="M26">
+        <v>0.1722426922713053</v>
+      </c>
+      <c r="N26">
+        <v>0.1722426922713053</v>
+      </c>
+      <c r="O26">
+        <v>0.5930720784319675</v>
+      </c>
+      <c r="P26">
+        <v>0.1156964328822926</v>
+      </c>
+      <c r="Q26">
+        <v>0.1156964328822926</v>
+      </c>
+      <c r="R26">
+        <v>0.0874233031877862</v>
+      </c>
+      <c r="S26">
+        <v>0.0874233031877862</v>
+      </c>
+      <c r="T26">
+        <v>0.519670048734315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.369073266138435</v>
+      </c>
+      <c r="D27">
+        <v>1.260253285487143</v>
+      </c>
+      <c r="E27">
+        <v>0.004710178862046044</v>
+      </c>
+      <c r="F27">
+        <v>1.570692271962322</v>
+      </c>
+      <c r="G27">
+        <v>1.260253285487143</v>
+      </c>
+      <c r="H27">
+        <v>4.558166583797326</v>
+      </c>
+      <c r="I27">
+        <v>0.5673480213445826</v>
+      </c>
+      <c r="J27">
+        <v>4.558166583797326</v>
+      </c>
+      <c r="K27">
+        <v>1.260253285487143</v>
+      </c>
+      <c r="L27">
+        <v>0.5673480213445826</v>
+      </c>
+      <c r="M27">
+        <v>2.562757302570954</v>
+      </c>
+      <c r="N27">
+        <v>2.562757302570954</v>
+      </c>
+      <c r="O27">
+        <v>2.232068959034744</v>
+      </c>
+      <c r="P27">
+        <v>2.128589296876351</v>
+      </c>
+      <c r="Q27">
+        <v>2.12858929687635</v>
+      </c>
+      <c r="R27">
+        <v>1.911505294029049</v>
+      </c>
+      <c r="S27">
+        <v>1.911505294029049</v>
+      </c>
+      <c r="T27">
+        <v>1.555040601265309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.488645022739878</v>
+      </c>
+      <c r="D28">
+        <v>3.426033666153096</v>
+      </c>
+      <c r="E28">
+        <v>0.5812004123584811</v>
+      </c>
+      <c r="F28">
+        <v>0.1991708008310578</v>
+      </c>
+      <c r="G28">
+        <v>3.426033666153096</v>
+      </c>
+      <c r="H28">
+        <v>0.1910839939485258</v>
+      </c>
+      <c r="I28">
+        <v>1.4197879305157</v>
+      </c>
+      <c r="J28">
+        <v>0.1910839939485258</v>
+      </c>
+      <c r="K28">
+        <v>3.426033666153096</v>
+      </c>
+      <c r="L28">
+        <v>1.4197879305157</v>
+      </c>
+      <c r="M28">
+        <v>0.8054359622321128</v>
+      </c>
+      <c r="N28">
+        <v>0.8054359622321128</v>
+      </c>
+      <c r="O28">
+        <v>0.6033475750984277</v>
+      </c>
+      <c r="P28">
+        <v>1.678968530205774</v>
+      </c>
+      <c r="Q28">
+        <v>1.678968530205774</v>
+      </c>
+      <c r="R28">
+        <v>2.115734814192604</v>
+      </c>
+      <c r="S28">
+        <v>2.115734814192604</v>
+      </c>
+      <c r="T28">
+        <v>1.21765363775779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.305105414384574</v>
+      </c>
+      <c r="D29">
+        <v>2.591395626811819</v>
+      </c>
+      <c r="E29">
+        <v>1.161056095939968</v>
+      </c>
+      <c r="F29">
+        <v>0.3979990805773068</v>
+      </c>
+      <c r="G29">
+        <v>2.591395626811819</v>
+      </c>
+      <c r="H29">
+        <v>0.3837155811567308</v>
+      </c>
+      <c r="I29">
+        <v>1.279088072864755</v>
+      </c>
+      <c r="J29">
+        <v>0.3837155811567308</v>
+      </c>
+      <c r="K29">
+        <v>2.591395626811819</v>
+      </c>
+      <c r="L29">
+        <v>1.279088072864755</v>
+      </c>
+      <c r="M29">
+        <v>0.8314018270107428</v>
+      </c>
+      <c r="N29">
+        <v>0.8314018270107428</v>
+      </c>
+      <c r="O29">
+        <v>0.6869342448662641</v>
+      </c>
+      <c r="P29">
+        <v>1.418066426944435</v>
+      </c>
+      <c r="Q29">
+        <v>1.418066426944435</v>
+      </c>
+      <c r="R29">
+        <v>1.711398726911281</v>
+      </c>
+      <c r="S29">
+        <v>1.711398726911281</v>
+      </c>
+      <c r="T29">
+        <v>1.186393311955859</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9925932602012733</v>
+      </c>
+      <c r="D30">
+        <v>1.188863400472951</v>
+      </c>
+      <c r="E30">
+        <v>2.567029495307509</v>
+      </c>
+      <c r="F30">
+        <v>0.6318299856820022</v>
+      </c>
+      <c r="G30">
+        <v>1.188863400472951</v>
+      </c>
+      <c r="H30">
+        <v>0.7489108049584494</v>
+      </c>
+      <c r="I30">
+        <v>1.21394983557345</v>
+      </c>
+      <c r="J30">
+        <v>0.7489108049584494</v>
+      </c>
+      <c r="K30">
+        <v>1.188863400472951</v>
+      </c>
+      <c r="L30">
+        <v>1.21394983557345</v>
+      </c>
+      <c r="M30">
+        <v>0.9814303202659497</v>
+      </c>
+      <c r="N30">
+        <v>0.9814303202659497</v>
+      </c>
+      <c r="O30">
+        <v>0.8648968754046339</v>
+      </c>
+      <c r="P30">
+        <v>1.05057468033495</v>
+      </c>
+      <c r="Q30">
+        <v>1.05057468033495</v>
+      </c>
+      <c r="R30">
+        <v>1.08514686036945</v>
+      </c>
+      <c r="S30">
+        <v>1.08514686036945</v>
+      </c>
+      <c r="T30">
+        <v>1.223862797032606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.000585640126407</v>
+      </c>
+      <c r="D31">
+        <v>0.647829268021471</v>
+      </c>
+      <c r="E31">
+        <v>2.794843897185893</v>
+      </c>
+      <c r="F31">
+        <v>0.9043485124599977</v>
+      </c>
+      <c r="G31">
+        <v>0.647829268021471</v>
+      </c>
+      <c r="H31">
+        <v>1.473547287455297</v>
+      </c>
+      <c r="I31">
+        <v>0.8768722071092797</v>
+      </c>
+      <c r="J31">
+        <v>1.473547287455297</v>
+      </c>
+      <c r="K31">
+        <v>0.647829268021471</v>
+      </c>
+      <c r="L31">
+        <v>0.8768722071092797</v>
+      </c>
+      <c r="M31">
+        <v>1.175209747282288</v>
+      </c>
+      <c r="N31">
+        <v>1.175209747282288</v>
+      </c>
+      <c r="O31">
+        <v>1.084922669008191</v>
+      </c>
+      <c r="P31">
+        <v>0.9994162541953493</v>
+      </c>
+      <c r="Q31">
+        <v>0.9994162541953493</v>
+      </c>
+      <c r="R31">
+        <v>0.9115195076518797</v>
+      </c>
+      <c r="S31">
+        <v>0.9115195076518797</v>
+      </c>
+      <c r="T31">
+        <v>1.283004468726391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.648290373209315</v>
+      </c>
+      <c r="D32">
+        <v>4.200701843126027</v>
+      </c>
+      <c r="E32">
+        <v>0.002812093778630137</v>
+      </c>
+      <c r="F32">
+        <v>0.0001290138975342463</v>
+      </c>
+      <c r="G32">
+        <v>4.200701843126027</v>
+      </c>
+      <c r="H32">
+        <v>-0.002019863843287671</v>
+      </c>
+      <c r="I32">
+        <v>1.559727247489863</v>
+      </c>
+      <c r="J32">
+        <v>-0.002019863843287671</v>
+      </c>
+      <c r="K32">
+        <v>4.200701843126027</v>
+      </c>
+      <c r="L32">
+        <v>1.559727247489863</v>
+      </c>
+      <c r="M32">
+        <v>0.7788536918232876</v>
+      </c>
+      <c r="N32">
+        <v>0.7788536918232876</v>
+      </c>
+      <c r="O32">
+        <v>0.5192787991813698</v>
+      </c>
+      <c r="P32">
+        <v>1.919469742257534</v>
+      </c>
+      <c r="Q32">
+        <v>1.919469742257534</v>
+      </c>
+      <c r="R32">
+        <v>2.489777767474657</v>
+      </c>
+      <c r="S32">
+        <v>2.489777767474657</v>
+      </c>
+      <c r="T32">
+        <v>1.234940117943014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.07200653982684212</v>
+      </c>
+      <c r="D33">
+        <v>6.773557761687894</v>
+      </c>
+      <c r="E33">
+        <v>0.250523179371579</v>
+      </c>
+      <c r="F33">
+        <v>1.061763673263158</v>
+      </c>
+      <c r="G33">
+        <v>6.773557761687894</v>
+      </c>
+      <c r="H33">
+        <v>0.00388953679631579</v>
+      </c>
+      <c r="I33">
+        <v>0.5191912835710525</v>
+      </c>
+      <c r="J33">
+        <v>0.00388953679631579</v>
+      </c>
+      <c r="K33">
+        <v>6.773557761687894</v>
+      </c>
+      <c r="L33">
+        <v>0.5191912835710525</v>
+      </c>
+      <c r="M33">
+        <v>0.2615404101836841</v>
+      </c>
+      <c r="N33">
+        <v>0.2615404101836841</v>
+      </c>
+      <c r="O33">
+        <v>0.5282814978768421</v>
+      </c>
+      <c r="P33">
+        <v>2.432212860685087</v>
+      </c>
+      <c r="Q33">
+        <v>2.432212860685087</v>
+      </c>
+      <c r="R33">
+        <v>3.517549085935789</v>
+      </c>
+      <c r="S33">
+        <v>3.517549085935789</v>
+      </c>
+      <c r="T33">
+        <v>1.446821995752807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>-0.006718729092105261</v>
+      </c>
+      <c r="D34">
+        <v>3.550257761821579</v>
+      </c>
+      <c r="E34">
+        <v>10.75244500424159</v>
+      </c>
+      <c r="F34">
+        <v>0.001981799332631579</v>
+      </c>
+      <c r="G34">
+        <v>3.550257761821579</v>
+      </c>
+      <c r="H34">
+        <v>7.101607764895791</v>
+      </c>
+      <c r="I34">
+        <v>3.584102029468421</v>
+      </c>
+      <c r="J34">
+        <v>7.101607764895791</v>
+      </c>
+      <c r="K34">
+        <v>3.550257761821579</v>
+      </c>
+      <c r="L34">
+        <v>3.584102029468421</v>
+      </c>
+      <c r="M34">
+        <v>5.342854897182105</v>
+      </c>
+      <c r="N34">
+        <v>5.342854897182105</v>
+      </c>
+      <c r="O34">
+        <v>3.562563864565614</v>
+      </c>
+      <c r="P34">
+        <v>4.745322518728597</v>
+      </c>
+      <c r="Q34">
+        <v>4.745322518728597</v>
+      </c>
+      <c r="R34">
+        <v>4.446556329501842</v>
+      </c>
+      <c r="S34">
+        <v>4.446556329501842</v>
+      </c>
+      <c r="T34">
+        <v>4.16394593844465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4580077415634901</v>
+      </c>
+      <c r="D35">
+        <v>0.4822671326368677</v>
+      </c>
+      <c r="E35">
+        <v>3.499980134799996</v>
+      </c>
+      <c r="F35">
+        <v>0.4145747811741251</v>
+      </c>
+      <c r="G35">
+        <v>0.4822671326368677</v>
+      </c>
+      <c r="H35">
+        <v>0.3669825637112307</v>
+      </c>
+      <c r="I35">
+        <v>0.5283836198993422</v>
+      </c>
+      <c r="J35">
+        <v>0.3669825637112307</v>
+      </c>
+      <c r="K35">
+        <v>0.4822671326368677</v>
+      </c>
+      <c r="L35">
+        <v>0.5283836198993422</v>
+      </c>
+      <c r="M35">
+        <v>0.4476830918052864</v>
+      </c>
+      <c r="N35">
+        <v>0.4476830918052864</v>
+      </c>
+      <c r="O35">
+        <v>0.436646988261566</v>
+      </c>
+      <c r="P35">
+        <v>0.4592111054158135</v>
+      </c>
+      <c r="Q35">
+        <v>0.4592111054158135</v>
+      </c>
+      <c r="R35">
+        <v>0.4649751122210771</v>
+      </c>
+      <c r="S35">
+        <v>0.4649751122210771</v>
+      </c>
+      <c r="T35">
+        <v>0.958365995630842</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9708199658338842</v>
+      </c>
+      <c r="D36">
+        <v>1.07708804696794</v>
+      </c>
+      <c r="E36">
+        <v>1.028948896914294</v>
+      </c>
+      <c r="F36">
+        <v>0.9925783898153214</v>
+      </c>
+      <c r="G36">
+        <v>1.07708804696794</v>
+      </c>
+      <c r="H36">
+        <v>1.000673701368521</v>
+      </c>
+      <c r="I36">
+        <v>0.990559000580545</v>
+      </c>
+      <c r="J36">
+        <v>1.000673701368521</v>
+      </c>
+      <c r="K36">
+        <v>1.07708804696794</v>
+      </c>
+      <c r="L36">
+        <v>0.990559000580545</v>
+      </c>
+      <c r="M36">
+        <v>0.9956163509745328</v>
+      </c>
+      <c r="N36">
+        <v>0.9956163509745328</v>
+      </c>
+      <c r="O36">
+        <v>0.9946036972547957</v>
+      </c>
+      <c r="P36">
+        <v>1.022773582972335</v>
+      </c>
+      <c r="Q36">
+        <v>1.022773582972335</v>
+      </c>
+      <c r="R36">
+        <v>1.036352198971236</v>
+      </c>
+      <c r="S36">
+        <v>1.036352198971236</v>
+      </c>
+      <c r="T36">
+        <v>1.010111333580084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9760029666537953</v>
+      </c>
+      <c r="D37">
+        <v>0.9833262660746653</v>
+      </c>
+      <c r="E37">
+        <v>1.102137910282777</v>
+      </c>
+      <c r="F37">
+        <v>0.9861571606660212</v>
+      </c>
+      <c r="G37">
+        <v>0.9833262660746653</v>
+      </c>
+      <c r="H37">
+        <v>1.020796476260661</v>
+      </c>
+      <c r="I37">
+        <v>1.045102575412123</v>
+      </c>
+      <c r="J37">
+        <v>1.020796476260661</v>
+      </c>
+      <c r="K37">
+        <v>0.9833262660746653</v>
+      </c>
+      <c r="L37">
+        <v>1.045102575412123</v>
+      </c>
+      <c r="M37">
+        <v>1.032949525836392</v>
+      </c>
+      <c r="N37">
+        <v>1.032949525836392</v>
+      </c>
+      <c r="O37">
+        <v>1.017352070779602</v>
+      </c>
+      <c r="P37">
+        <v>1.016408439249149</v>
+      </c>
+      <c r="Q37">
+        <v>1.016408439249149</v>
+      </c>
+      <c r="R37">
+        <v>1.008137895955528</v>
+      </c>
+      <c r="S37">
+        <v>1.008137895955528</v>
+      </c>
+      <c r="T37">
+        <v>1.018920559225007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9180545184918734</v>
+      </c>
+      <c r="D38">
+        <v>1.311732626446619</v>
+      </c>
+      <c r="E38">
+        <v>1.532752231800474</v>
+      </c>
+      <c r="F38">
+        <v>0.9751002034368693</v>
+      </c>
+      <c r="G38">
+        <v>1.311732626446619</v>
+      </c>
+      <c r="H38">
+        <v>0.9917374879809603</v>
+      </c>
+      <c r="I38">
+        <v>1.266352797804681</v>
+      </c>
+      <c r="J38">
+        <v>0.9917374879809603</v>
+      </c>
+      <c r="K38">
+        <v>1.311732626446619</v>
+      </c>
+      <c r="L38">
+        <v>1.266352797804681</v>
+      </c>
+      <c r="M38">
+        <v>1.129045142892821</v>
+      </c>
+      <c r="N38">
+        <v>1.129045142892821</v>
+      </c>
+      <c r="O38">
+        <v>1.07773016307417</v>
+      </c>
+      <c r="P38">
+        <v>1.189940970744087</v>
+      </c>
+      <c r="Q38">
+        <v>1.189940970744087</v>
+      </c>
+      <c r="R38">
+        <v>1.22038888466972</v>
+      </c>
+      <c r="S38">
+        <v>1.22038888466972</v>
+      </c>
+      <c r="T38">
+        <v>1.165954977660246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.7952729918197989</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>3.407038994376164</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.152241021777958</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.8823535581277999</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>3.407038994376164</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.24463338787236</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.8594745491258229</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.24463338787236</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>3.407038994376164</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.8594745491258229</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.052053968499091</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.052053968499091</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9954871650419944</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.837048977124782</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.837048977124782</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>2.229546481437628</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>2.229546481437628</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.390169083849984</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9297348649588021</v>
+      </c>
+      <c r="D40">
+        <v>2.295201069192508</v>
+      </c>
+      <c r="E40">
+        <v>0.9305340276270353</v>
+      </c>
+      <c r="F40">
+        <v>0.8808289452622048</v>
+      </c>
+      <c r="G40">
+        <v>2.295201069192508</v>
+      </c>
+      <c r="H40">
+        <v>0.7940542959985416</v>
+      </c>
+      <c r="I40">
+        <v>0.8992459199857777</v>
+      </c>
+      <c r="J40">
+        <v>0.7940542959985416</v>
+      </c>
+      <c r="K40">
+        <v>2.295201069192508</v>
+      </c>
+      <c r="L40">
+        <v>0.8992459199857777</v>
+      </c>
+      <c r="M40">
+        <v>0.8466501079921597</v>
+      </c>
+      <c r="N40">
+        <v>0.8466501079921597</v>
+      </c>
+      <c r="O40">
+        <v>0.8580430537488414</v>
+      </c>
+      <c r="P40">
+        <v>1.329500428392276</v>
+      </c>
+      <c r="Q40">
+        <v>1.329500428392276</v>
+      </c>
+      <c r="R40">
+        <v>1.570925588592334</v>
+      </c>
+      <c r="S40">
+        <v>1.570925588592334</v>
+      </c>
+      <c r="T40">
+        <v>1.121599853837478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9890315029360986</v>
+      </c>
+      <c r="D41">
+        <v>0.938849953201264</v>
+      </c>
+      <c r="E41">
+        <v>1.116938123302336</v>
+      </c>
+      <c r="F41">
+        <v>1.045373231781553</v>
+      </c>
+      <c r="G41">
+        <v>0.938849953201264</v>
+      </c>
+      <c r="H41">
+        <v>1.127248557843148</v>
+      </c>
+      <c r="I41">
+        <v>0.991838694492553</v>
+      </c>
+      <c r="J41">
+        <v>1.127248557843148</v>
+      </c>
+      <c r="K41">
+        <v>0.938849953201264</v>
+      </c>
+      <c r="L41">
+        <v>0.991838694492553</v>
+      </c>
+      <c r="M41">
+        <v>1.059543626167851</v>
+      </c>
+      <c r="N41">
+        <v>1.059543626167851</v>
+      </c>
+      <c r="O41">
+        <v>1.054820161372418</v>
+      </c>
+      <c r="P41">
+        <v>1.019312401845655</v>
+      </c>
+      <c r="Q41">
+        <v>1.019312401845655</v>
+      </c>
+      <c r="R41">
+        <v>0.9991967896845573</v>
+      </c>
+      <c r="S41">
+        <v>0.9991967896845573</v>
+      </c>
+      <c r="T41">
+        <v>1.034880010592826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.153201003663376</v>
+      </c>
+      <c r="D42">
+        <v>2.455153853664488</v>
+      </c>
+      <c r="E42">
+        <v>1.497606918419145</v>
+      </c>
+      <c r="F42">
+        <v>0.4483317829945573</v>
+      </c>
+      <c r="G42">
+        <v>2.455153853664488</v>
+      </c>
+      <c r="H42">
+        <v>0.5082602531700622</v>
+      </c>
+      <c r="I42">
+        <v>1.06927355808389</v>
+      </c>
+      <c r="J42">
+        <v>0.5082602531700622</v>
+      </c>
+      <c r="K42">
+        <v>2.455153853664488</v>
+      </c>
+      <c r="L42">
+        <v>1.06927355808389</v>
+      </c>
+      <c r="M42">
+        <v>0.7887669056269759</v>
+      </c>
+      <c r="N42">
+        <v>0.7887669056269759</v>
+      </c>
+      <c r="O42">
+        <v>0.6752885314161697</v>
+      </c>
+      <c r="P42">
+        <v>1.34422922163948</v>
+      </c>
+      <c r="Q42">
+        <v>1.34422922163948</v>
+      </c>
+      <c r="R42">
+        <v>1.621960379645732</v>
+      </c>
+      <c r="S42">
+        <v>1.621960379645732</v>
+      </c>
+      <c r="T42">
+        <v>1.188637894999253</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.198956928914485</v>
+        <v>0.9741253495393569</v>
       </c>
       <c r="D3">
-        <v>0.9745254296422354</v>
+        <v>1.06313633568694</v>
       </c>
       <c r="E3">
-        <v>1.022518592558583</v>
+        <v>1.038464879687079</v>
       </c>
       <c r="F3">
-        <v>1.198956928914485</v>
+        <v>0.9814091405476436</v>
       </c>
       <c r="G3">
-        <v>0.9856941521042947</v>
+        <v>1.06313633568694</v>
       </c>
       <c r="H3">
-        <v>0.9290351252787633</v>
+        <v>0.9869361729295402</v>
       </c>
       <c r="I3">
-        <v>1.003784579615898</v>
+        <v>0.9910588625093565</v>
       </c>
       <c r="J3">
-        <v>0.9745254296422354</v>
+        <v>0.9869361729295402</v>
       </c>
       <c r="K3">
-        <v>1.198956928914485</v>
+        <v>1.06313633568694</v>
       </c>
       <c r="L3">
-        <v>1.022518592558583</v>
+        <v>0.9910588625093565</v>
       </c>
       <c r="M3">
-        <v>0.9985220111004091</v>
+        <v>0.9889975177194483</v>
       </c>
       <c r="N3">
-        <v>0.9985220111004091</v>
+        <v>0.9889975177194483</v>
       </c>
       <c r="O3">
-        <v>0.9753597158265271</v>
+        <v>0.98646805866218</v>
       </c>
       <c r="P3">
-        <v>1.065333650371768</v>
+        <v>1.013710457041946</v>
       </c>
       <c r="Q3">
-        <v>1.065333650371768</v>
+        <v>1.013710457041946</v>
       </c>
       <c r="R3">
-        <v>1.098739470007447</v>
+        <v>1.026066926703194</v>
       </c>
       <c r="S3">
-        <v>1.098739470007447</v>
+        <v>1.026066926703194</v>
       </c>
       <c r="T3">
-        <v>1.019085801352376</v>
+        <v>1.005855123483319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.229205207027086</v>
+        <v>0.9297348649588021</v>
       </c>
       <c r="D4">
-        <v>0.9058005671829026</v>
+        <v>2.295201069192508</v>
       </c>
       <c r="E4">
-        <v>1.050702399134384</v>
+        <v>0.9305340276270353</v>
       </c>
       <c r="F4">
-        <v>1.229205207027086</v>
+        <v>0.8808289452622048</v>
       </c>
       <c r="G4">
-        <v>1.083309460784969</v>
+        <v>2.295201069192508</v>
       </c>
       <c r="H4">
-        <v>0.8406442455800631</v>
+        <v>0.7940542959985416</v>
       </c>
       <c r="I4">
-        <v>0.9855017272006866</v>
+        <v>0.8992459199857777</v>
       </c>
       <c r="J4">
-        <v>0.9058005671829026</v>
+        <v>0.7940542959985416</v>
       </c>
       <c r="K4">
-        <v>1.229205207027086</v>
+        <v>2.295201069192508</v>
       </c>
       <c r="L4">
-        <v>1.050702399134384</v>
+        <v>0.8992459199857777</v>
       </c>
       <c r="M4">
-        <v>0.9782514831586435</v>
+        <v>0.8466501079921597</v>
       </c>
       <c r="N4">
-        <v>0.9782514831586435</v>
+        <v>0.8466501079921597</v>
       </c>
       <c r="O4">
-        <v>0.9323824039657834</v>
+        <v>0.8580430537488414</v>
       </c>
       <c r="P4">
-        <v>1.061902724448124</v>
+        <v>1.329500428392276</v>
       </c>
       <c r="Q4">
-        <v>1.061902724448124</v>
+        <v>1.329500428392276</v>
       </c>
       <c r="R4">
-        <v>1.103728345092865</v>
+        <v>1.570925588592334</v>
       </c>
       <c r="S4">
-        <v>1.103728345092865</v>
+        <v>1.570925588592334</v>
       </c>
       <c r="T4">
-        <v>1.015860601151682</v>
+        <v>1.121599853837478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.790048211794487</v>
+        <v>0.9199085696396805</v>
       </c>
       <c r="D5">
-        <v>0.8981964778586757</v>
+        <v>1.011897913183522</v>
       </c>
       <c r="E5">
-        <v>1.295461500438941</v>
+        <v>2.441112611192259</v>
       </c>
       <c r="F5">
-        <v>2.790048211794487</v>
+        <v>0.7483520581149573</v>
       </c>
       <c r="G5">
-        <v>1.236940881419772</v>
+        <v>1.011897913183522</v>
       </c>
       <c r="H5">
-        <v>0.6747133034281512</v>
+        <v>0.8207730248272439</v>
       </c>
       <c r="I5">
-        <v>1.533747425146995</v>
+        <v>1.021861114168946</v>
       </c>
       <c r="J5">
-        <v>0.8981964778586757</v>
+        <v>0.8207730248272439</v>
       </c>
       <c r="K5">
-        <v>2.790048211794487</v>
+        <v>1.011897913183522</v>
       </c>
       <c r="L5">
-        <v>1.295461500438941</v>
+        <v>1.021861114168946</v>
       </c>
       <c r="M5">
-        <v>1.096828989148808</v>
+        <v>0.9213170694980948</v>
       </c>
       <c r="N5">
-        <v>1.096828989148808</v>
+        <v>0.9213170694980948</v>
       </c>
       <c r="O5">
-        <v>0.9561237605752559</v>
+        <v>0.8636620657037156</v>
       </c>
       <c r="P5">
-        <v>1.661235396697368</v>
+        <v>0.951510684059904</v>
       </c>
       <c r="Q5">
-        <v>1.661235396697368</v>
+        <v>0.951510684059904</v>
       </c>
       <c r="R5">
-        <v>1.943438600471648</v>
+        <v>0.9666074913408085</v>
       </c>
       <c r="S5">
-        <v>1.943438600471648</v>
+        <v>0.9666074913408085</v>
       </c>
       <c r="T5">
-        <v>1.404851300014504</v>
+        <v>1.160650881854435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.825829990993068</v>
+        <v>0.4580077415634901</v>
       </c>
       <c r="D6">
-        <v>1.074050880238122</v>
+        <v>0.4822671326368677</v>
       </c>
       <c r="E6">
-        <v>3.459388475871675</v>
+        <v>3.499980134799996</v>
       </c>
       <c r="F6">
-        <v>4.825829990993068</v>
+        <v>0.4145747811741251</v>
       </c>
       <c r="G6">
-        <v>2.524912185616423</v>
+        <v>0.4822671326368677</v>
       </c>
       <c r="H6">
-        <v>0.6127746093348216</v>
+        <v>0.3669825637112307</v>
       </c>
       <c r="I6">
-        <v>0.4171846513923382</v>
+        <v>0.5283836198993422</v>
       </c>
       <c r="J6">
-        <v>1.074050880238122</v>
+        <v>0.3669825637112307</v>
       </c>
       <c r="K6">
-        <v>4.825829990993068</v>
+        <v>0.4822671326368677</v>
       </c>
       <c r="L6">
-        <v>3.459388475871675</v>
+        <v>0.5283836198993422</v>
       </c>
       <c r="M6">
-        <v>2.266719678054899</v>
+        <v>0.4476830918052864</v>
       </c>
       <c r="N6">
-        <v>2.266719678054899</v>
+        <v>0.4476830918052864</v>
       </c>
       <c r="O6">
-        <v>1.715404655148206</v>
+        <v>0.436646988261566</v>
       </c>
       <c r="P6">
-        <v>3.119756449034288</v>
+        <v>0.4592111054158135</v>
       </c>
       <c r="Q6">
-        <v>3.119756449034288</v>
+        <v>0.4592111054158135</v>
       </c>
       <c r="R6">
-        <v>3.546274834523983</v>
+        <v>0.4649751122210771</v>
       </c>
       <c r="S6">
-        <v>3.546274834523983</v>
+        <v>0.4649751122210771</v>
       </c>
       <c r="T6">
-        <v>2.152356798907741</v>
+        <v>0.958365995630842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.056591426292759</v>
+        <v>1.012935254936239</v>
       </c>
       <c r="D7">
-        <v>0.9788353397473685</v>
+        <v>1.228454978911484</v>
       </c>
       <c r="E7">
-        <v>0.9953687715378408</v>
+        <v>0.9888178794698183</v>
       </c>
       <c r="F7">
-        <v>1.056591426292759</v>
+        <v>0.9452350798841616</v>
       </c>
       <c r="G7">
-        <v>1.014327712439993</v>
+        <v>1.228454978911484</v>
       </c>
       <c r="H7">
-        <v>0.9856096806126489</v>
+        <v>0.9793871428790225</v>
       </c>
       <c r="I7">
-        <v>0.9869110034252679</v>
+        <v>1.029692699289698</v>
       </c>
       <c r="J7">
-        <v>0.9788353397473685</v>
+        <v>0.9793871428790225</v>
       </c>
       <c r="K7">
-        <v>1.056591426292759</v>
+        <v>1.228454978911484</v>
       </c>
       <c r="L7">
-        <v>0.9953687715378408</v>
+        <v>1.029692699289698</v>
       </c>
       <c r="M7">
-        <v>0.9871020556426047</v>
+        <v>1.00453992108436</v>
       </c>
       <c r="N7">
-        <v>0.9871020556426047</v>
+        <v>1.00453992108436</v>
       </c>
       <c r="O7">
-        <v>0.986604597299286</v>
+        <v>0.9847716406842938</v>
       </c>
       <c r="P7">
-        <v>1.010265179192656</v>
+        <v>1.079178273693401</v>
       </c>
       <c r="Q7">
-        <v>1.010265179192656</v>
+        <v>1.079178273693401</v>
       </c>
       <c r="R7">
-        <v>1.021846740967682</v>
+        <v>1.116497449997922</v>
       </c>
       <c r="S7">
-        <v>1.021846740967682</v>
+        <v>1.116497449997922</v>
       </c>
       <c r="T7">
-        <v>1.00294065567598</v>
+        <v>1.030753839228404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.063136335686939</v>
+        <v>0.9760029666537953</v>
       </c>
       <c r="D8">
-        <v>0.9869361729295403</v>
+        <v>0.9833262660746653</v>
       </c>
       <c r="E8">
-        <v>0.9910588625093593</v>
+        <v>1.102137910282777</v>
       </c>
       <c r="F8">
-        <v>1.063136335686939</v>
+        <v>0.9861571606660212</v>
       </c>
       <c r="G8">
-        <v>1.038464879687085</v>
+        <v>0.9833262660746653</v>
       </c>
       <c r="H8">
-        <v>0.9814091405476431</v>
+        <v>1.020796476260661</v>
       </c>
       <c r="I8">
-        <v>0.974125349539359</v>
+        <v>1.045102575412123</v>
       </c>
       <c r="J8">
-        <v>0.9869361729295403</v>
+        <v>1.020796476260661</v>
       </c>
       <c r="K8">
-        <v>1.063136335686939</v>
+        <v>0.9833262660746653</v>
       </c>
       <c r="L8">
-        <v>0.9910588625093593</v>
+        <v>1.045102575412123</v>
       </c>
       <c r="M8">
-        <v>0.9889975177194498</v>
+        <v>1.032949525836392</v>
       </c>
       <c r="N8">
-        <v>0.9889975177194498</v>
+        <v>1.032949525836392</v>
       </c>
       <c r="O8">
-        <v>0.9864680586621809</v>
+        <v>1.017352070779602</v>
       </c>
       <c r="P8">
-        <v>1.013710457041946</v>
+        <v>1.016408439249149</v>
       </c>
       <c r="Q8">
-        <v>1.013710457041946</v>
+        <v>1.016408439249149</v>
       </c>
       <c r="R8">
-        <v>1.026066926703194</v>
+        <v>1.008137895955528</v>
       </c>
       <c r="S8">
-        <v>1.026066926703194</v>
+        <v>1.008137895955528</v>
       </c>
       <c r="T8">
-        <v>1.005855123483321</v>
+        <v>1.018920559225007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.256306514237563</v>
+        <v>0.9855017272006866</v>
       </c>
       <c r="D9">
-        <v>0.9553312199285811</v>
+        <v>1.229205207027086</v>
       </c>
       <c r="E9">
-        <v>1.064984415219423</v>
+        <v>1.083309460784969</v>
       </c>
       <c r="F9">
-        <v>1.256306514237563</v>
+        <v>0.8406442455800632</v>
       </c>
       <c r="G9">
-        <v>0.9836270183077838</v>
+        <v>1.229205207027086</v>
       </c>
       <c r="H9">
-        <v>1.007414174082142</v>
+        <v>0.9058005671829026</v>
       </c>
       <c r="I9">
-        <v>0.9483406537610062</v>
+        <v>1.050702399134384</v>
       </c>
       <c r="J9">
-        <v>0.9553312199285811</v>
+        <v>0.9058005671829026</v>
       </c>
       <c r="K9">
-        <v>1.256306514237563</v>
+        <v>1.229205207027086</v>
       </c>
       <c r="L9">
-        <v>1.064984415219423</v>
+        <v>1.050702399134384</v>
       </c>
       <c r="M9">
-        <v>1.010157817574002</v>
+        <v>0.9782514831586435</v>
       </c>
       <c r="N9">
-        <v>1.010157817574002</v>
+        <v>0.9782514831586435</v>
       </c>
       <c r="O9">
-        <v>1.009243269743382</v>
+        <v>0.9323824039657834</v>
       </c>
       <c r="P9">
-        <v>1.092207383128523</v>
+        <v>1.061902724448124</v>
       </c>
       <c r="Q9">
-        <v>1.092207383128523</v>
+        <v>1.061902724448124</v>
       </c>
       <c r="R9">
-        <v>1.133232165905783</v>
+        <v>1.103728345092865</v>
       </c>
       <c r="S9">
-        <v>1.133232165905783</v>
+        <v>1.103728345092865</v>
       </c>
       <c r="T9">
-        <v>1.03600066592275</v>
+        <v>1.015860601151682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.542802950508848</v>
+        <v>0.4474689269828386</v>
       </c>
       <c r="D10">
-        <v>0.8778156391141844</v>
+        <v>0.4082602386962613</v>
       </c>
       <c r="E10">
-        <v>1.142119864857981</v>
+        <v>3.678218110641753</v>
       </c>
       <c r="F10">
-        <v>1.542802950508848</v>
+        <v>0.3460809468471422</v>
       </c>
       <c r="G10">
-        <v>1.004363736920123</v>
+        <v>0.4082602386962613</v>
       </c>
       <c r="H10">
-        <v>1.008821240498856</v>
+        <v>0.4858550124202515</v>
       </c>
       <c r="I10">
-        <v>1.221239141972095</v>
+        <v>0.4817468412465913</v>
       </c>
       <c r="J10">
-        <v>0.8778156391141844</v>
+        <v>0.4858550124202515</v>
       </c>
       <c r="K10">
-        <v>1.542802950508848</v>
+        <v>0.4082602386962613</v>
       </c>
       <c r="L10">
-        <v>1.142119864857981</v>
+        <v>0.4817468412465913</v>
       </c>
       <c r="M10">
-        <v>1.009967751986083</v>
+        <v>0.4838009268334214</v>
       </c>
       <c r="N10">
-        <v>1.009967751986083</v>
+        <v>0.4838009268334214</v>
       </c>
       <c r="O10">
-        <v>1.009585581490341</v>
+        <v>0.437894266837995</v>
       </c>
       <c r="P10">
-        <v>1.187579484827004</v>
+        <v>0.458620697454368</v>
       </c>
       <c r="Q10">
-        <v>1.187579484827004</v>
+        <v>0.458620697454368</v>
       </c>
       <c r="R10">
-        <v>1.276385351247465</v>
+        <v>0.4460305827648413</v>
       </c>
       <c r="S10">
-        <v>1.276385351247465</v>
+        <v>0.4460305827648413</v>
       </c>
       <c r="T10">
-        <v>1.132860428978681</v>
+        <v>0.9746050128058062</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.703762906936088</v>
+        <v>0.954861566780283</v>
       </c>
       <c r="D11">
-        <v>1.465220431406058</v>
+        <v>2.286071437904318</v>
       </c>
       <c r="E11">
-        <v>1.268500628744414</v>
+        <v>1.044135925091225</v>
       </c>
       <c r="F11">
-        <v>1.703762906936088</v>
+        <v>0.8506884680692347</v>
       </c>
       <c r="G11">
-        <v>1.229792736033029</v>
+        <v>2.286071437904318</v>
       </c>
       <c r="H11">
-        <v>1.27802446393069</v>
+        <v>0.8675905918781308</v>
       </c>
       <c r="I11">
-        <v>0.8219022401342856</v>
+        <v>0.8902137320914962</v>
       </c>
       <c r="J11">
-        <v>1.465220431406058</v>
+        <v>0.8675905918781308</v>
       </c>
       <c r="K11">
-        <v>1.703762906936088</v>
+        <v>2.286071437904318</v>
       </c>
       <c r="L11">
-        <v>1.268500628744414</v>
+        <v>0.8902137320914962</v>
       </c>
       <c r="M11">
-        <v>1.366860530075236</v>
+        <v>0.8789021619848135</v>
       </c>
       <c r="N11">
-        <v>1.366860530075236</v>
+        <v>0.8789021619848135</v>
       </c>
       <c r="O11">
-        <v>1.337248508027054</v>
+        <v>0.8694975973462872</v>
       </c>
       <c r="P11">
-        <v>1.479161322362187</v>
+        <v>1.347958587291315</v>
       </c>
       <c r="Q11">
-        <v>1.479161322362187</v>
+        <v>1.347958587291315</v>
       </c>
       <c r="R11">
-        <v>1.535311718505662</v>
+        <v>1.582486799944566</v>
       </c>
       <c r="S11">
-        <v>1.535311718505662</v>
+        <v>1.582486799944566</v>
       </c>
       <c r="T11">
-        <v>1.294533901197428</v>
+        <v>1.148926953635781</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.3764207645814019</v>
+        <v>0.8352893121543952</v>
       </c>
       <c r="D12">
-        <v>0.005483698228616222</v>
+        <v>0.832532078155549</v>
       </c>
       <c r="E12">
-        <v>0.002206662561325261</v>
+        <v>2.790471861105376</v>
       </c>
       <c r="F12">
-        <v>0.3764207645814019</v>
+        <v>0.6401289253327029</v>
       </c>
       <c r="G12">
-        <v>0.0006892505686102693</v>
+        <v>0.832532078155549</v>
       </c>
       <c r="H12">
-        <v>0.0277853058582506</v>
+        <v>1.152033608064081</v>
       </c>
       <c r="I12">
-        <v>0.9552687975429618</v>
+        <v>0.9122524450341883</v>
       </c>
       <c r="J12">
-        <v>0.005483698228616222</v>
+        <v>1.152033608064081</v>
       </c>
       <c r="K12">
-        <v>0.3764207645814019</v>
+        <v>0.832532078155549</v>
       </c>
       <c r="L12">
-        <v>0.002206662561325261</v>
+        <v>0.9122524450341883</v>
       </c>
       <c r="M12">
-        <v>0.003845180394970741</v>
+        <v>1.032143026549135</v>
       </c>
       <c r="N12">
-        <v>0.003845180394970741</v>
+        <v>1.032143026549135</v>
       </c>
       <c r="O12">
-        <v>0.01182522221606403</v>
+        <v>0.9014716594769908</v>
       </c>
       <c r="P12">
-        <v>0.1280370417904478</v>
+        <v>0.9656060437512727</v>
       </c>
       <c r="Q12">
-        <v>0.1280370417904478</v>
+        <v>0.9656060437512727</v>
       </c>
       <c r="R12">
-        <v>0.1901329724881863</v>
+        <v>0.9323375523523418</v>
       </c>
       <c r="S12">
-        <v>0.1901329724881863</v>
+        <v>0.9323375523523418</v>
       </c>
       <c r="T12">
-        <v>0.227975746556861</v>
+        <v>1.193784704974382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.523696846253131</v>
+        <v>0.9513813946451348</v>
       </c>
       <c r="D13">
-        <v>1.082404912359245</v>
+        <v>1.001615656741401</v>
       </c>
       <c r="E13">
-        <v>2.045999093377911</v>
+        <v>0.5830423342163952</v>
       </c>
       <c r="F13">
-        <v>1.523696846253131</v>
+        <v>0.9947515069453476</v>
       </c>
       <c r="G13">
-        <v>0.3073287146593361</v>
+        <v>1.001615656741401</v>
       </c>
       <c r="H13">
-        <v>1.559396370878427</v>
+        <v>1.561035089696983</v>
       </c>
       <c r="I13">
-        <v>0.745646147760973</v>
+        <v>0.8280923925006983</v>
       </c>
       <c r="J13">
-        <v>1.082404912359245</v>
+        <v>1.561035089696983</v>
       </c>
       <c r="K13">
-        <v>1.523696846253131</v>
+        <v>1.001615656741401</v>
       </c>
       <c r="L13">
-        <v>2.045999093377911</v>
+        <v>0.8280923925006983</v>
       </c>
       <c r="M13">
-        <v>1.564202002868578</v>
+        <v>1.194563741098841</v>
       </c>
       <c r="N13">
-        <v>1.564202002868578</v>
+        <v>1.194563741098841</v>
       </c>
       <c r="O13">
-        <v>1.562600125538528</v>
+        <v>1.127959663047676</v>
       </c>
       <c r="P13">
-        <v>1.550700283996762</v>
+        <v>1.130247712979694</v>
       </c>
       <c r="Q13">
-        <v>1.550700283996762</v>
+        <v>1.130247712979694</v>
       </c>
       <c r="R13">
-        <v>1.543949424560854</v>
+        <v>1.098089698920121</v>
       </c>
       <c r="S13">
-        <v>1.543949424560854</v>
+        <v>1.098089698920121</v>
       </c>
       <c r="T13">
-        <v>1.210745347548171</v>
+        <v>0.98665306245766</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.002603914104267083</v>
+        <v>-0.006201342399999991</v>
       </c>
       <c r="D14">
-        <v>0.006894729762544909</v>
+        <v>-0.009920246800000003</v>
       </c>
       <c r="E14">
-        <v>0.3375906547800673</v>
+        <v>4.626424900000001</v>
       </c>
       <c r="F14">
-        <v>0.002603914104267083</v>
+        <v>-0.003013859000000002</v>
       </c>
       <c r="G14">
-        <v>0.0005068676749151788</v>
+        <v>-0.009920246800000003</v>
       </c>
       <c r="H14">
-        <v>1.434730850753291</v>
+        <v>0.009524659099999999</v>
       </c>
       <c r="I14">
-        <v>1.335693275330806</v>
+        <v>0.02413487400000002</v>
       </c>
       <c r="J14">
-        <v>0.006894729762544909</v>
+        <v>0.009524659099999999</v>
       </c>
       <c r="K14">
-        <v>0.002603914104267083</v>
+        <v>-0.009920246800000003</v>
       </c>
       <c r="L14">
-        <v>0.3375906547800673</v>
+        <v>0.02413487400000002</v>
       </c>
       <c r="M14">
-        <v>0.1722426922713061</v>
+        <v>0.01682976655000001</v>
       </c>
       <c r="N14">
-        <v>0.1722426922713061</v>
+        <v>0.01682976655000001</v>
       </c>
       <c r="O14">
-        <v>0.5930720784319675</v>
+        <v>0.0102152247</v>
       </c>
       <c r="P14">
-        <v>0.1156964328822931</v>
+        <v>0.007913095433333336</v>
       </c>
       <c r="Q14">
-        <v>0.1156964328822931</v>
+        <v>0.007913095433333338</v>
       </c>
       <c r="R14">
-        <v>0.0874233031877866</v>
+        <v>0.003454759875000003</v>
       </c>
       <c r="S14">
-        <v>0.0874233031877866</v>
+        <v>0.003454759875000003</v>
       </c>
       <c r="T14">
-        <v>0.519670048734315</v>
+        <v>0.7734914974833336</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.260253285487142</v>
+        <v>-0.0094704848</v>
       </c>
       <c r="D15">
-        <v>4.558166583797326</v>
+        <v>-0.020369101</v>
       </c>
       <c r="E15">
-        <v>0.5673480213445826</v>
+        <v>0.012563197</v>
       </c>
       <c r="F15">
-        <v>1.260253285487142</v>
+        <v>0.017015373</v>
       </c>
       <c r="G15">
-        <v>0.004710178862046045</v>
+        <v>-0.020369101</v>
       </c>
       <c r="H15">
-        <v>1.570692271962321</v>
+        <v>-0.0043404773</v>
       </c>
       <c r="I15">
-        <v>1.369073266138435</v>
+        <v>1.5437086</v>
       </c>
       <c r="J15">
-        <v>4.558166583797326</v>
+        <v>-0.0043404773</v>
       </c>
       <c r="K15">
-        <v>1.260253285487142</v>
+        <v>-0.020369101</v>
       </c>
       <c r="L15">
-        <v>0.5673480213445826</v>
+        <v>1.5437086</v>
       </c>
       <c r="M15">
-        <v>2.562757302570954</v>
+        <v>0.76968406135</v>
       </c>
       <c r="N15">
-        <v>2.562757302570954</v>
+        <v>0.76968406135</v>
       </c>
       <c r="O15">
-        <v>2.232068959034743</v>
+        <v>0.5187944985666667</v>
       </c>
       <c r="P15">
-        <v>2.12858929687635</v>
+        <v>0.5063330072333333</v>
       </c>
       <c r="Q15">
-        <v>2.12858929687635</v>
+        <v>0.5063330072333333</v>
       </c>
       <c r="R15">
-        <v>1.911505294029048</v>
+        <v>0.374657480175</v>
       </c>
       <c r="S15">
-        <v>1.911505294029048</v>
+        <v>0.374657480175</v>
       </c>
       <c r="T15">
-        <v>1.555040601265309</v>
+        <v>0.25651785115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.077088046967938</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="D16">
-        <v>1.000673701368522</v>
+        <v>121.14151</v>
       </c>
       <c r="E16">
-        <v>0.9905590005805442</v>
+        <v>0.010282672</v>
       </c>
       <c r="F16">
-        <v>1.077088046967938</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="G16">
-        <v>1.028948896914295</v>
+        <v>121.14151</v>
       </c>
       <c r="H16">
-        <v>0.9925783898153222</v>
+        <v>0.00070900843</v>
       </c>
       <c r="I16">
-        <v>0.9708199658338833</v>
+        <v>-0.012240956</v>
       </c>
       <c r="J16">
-        <v>1.000673701368522</v>
+        <v>0.00070900843</v>
       </c>
       <c r="K16">
-        <v>1.077088046967938</v>
+        <v>121.14151</v>
       </c>
       <c r="L16">
-        <v>0.9905590005805442</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M16">
-        <v>0.9956163509745332</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="N16">
-        <v>0.9956163509745332</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="O16">
-        <v>0.9946036972547961</v>
+        <v>-0.004437407556666668</v>
       </c>
       <c r="P16">
-        <v>1.022773582972335</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="Q16">
-        <v>1.022773582972335</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="R16">
-        <v>1.036352198971235</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="S16">
-        <v>1.036352198971235</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="T16">
-        <v>1.010111333580084</v>
+        <v>20.18862854932167</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9833262660746656</v>
+        <v>-0.0018304812</v>
       </c>
       <c r="D17">
-        <v>1.020796476260661</v>
+        <v>-0.016485555</v>
       </c>
       <c r="E17">
-        <v>1.045102575412122</v>
+        <v>0.016145804</v>
       </c>
       <c r="F17">
-        <v>0.9833262660746656</v>
+        <v>0.0042085606</v>
       </c>
       <c r="G17">
-        <v>1.102137910282778</v>
+        <v>-0.016485555</v>
       </c>
       <c r="H17">
-        <v>0.9861571606660217</v>
+        <v>-0.02956329</v>
       </c>
       <c r="I17">
-        <v>0.976002966653795</v>
+        <v>0.004237495</v>
       </c>
       <c r="J17">
-        <v>1.020796476260661</v>
+        <v>-0.02956329</v>
       </c>
       <c r="K17">
-        <v>0.9833262660746656</v>
+        <v>-0.016485555</v>
       </c>
       <c r="L17">
-        <v>1.045102575412122</v>
+        <v>0.004237495</v>
       </c>
       <c r="M17">
-        <v>1.032949525836392</v>
+        <v>-0.0126628975</v>
       </c>
       <c r="N17">
-        <v>1.032949525836392</v>
+        <v>-0.0126628975</v>
       </c>
       <c r="O17">
-        <v>1.017352070779602</v>
+        <v>-0.007039078133333332</v>
       </c>
       <c r="P17">
-        <v>1.016408439249149</v>
+        <v>-0.01393711666666667</v>
       </c>
       <c r="Q17">
-        <v>1.016408439249149</v>
+        <v>-0.01393711666666667</v>
       </c>
       <c r="R17">
-        <v>1.008137895955528</v>
+        <v>-0.01457422625</v>
       </c>
       <c r="S17">
-        <v>1.008137895955528</v>
+        <v>-0.01457422625</v>
       </c>
       <c r="T17">
-        <v>1.018920559225007</v>
+        <v>-0.003881244433333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.311732626446619</v>
+        <v>1.648290373209315</v>
       </c>
       <c r="D18">
-        <v>0.9917374879809642</v>
+        <v>4.200701843126027</v>
       </c>
       <c r="E18">
-        <v>1.266352797804681</v>
+        <v>0.002812093778630137</v>
       </c>
       <c r="F18">
-        <v>1.311732626446619</v>
+        <v>0.0001290138975342463</v>
       </c>
       <c r="G18">
-        <v>1.532752231800475</v>
+        <v>4.200701843126027</v>
       </c>
       <c r="H18">
-        <v>0.9751002034368711</v>
+        <v>-0.002019863843287671</v>
       </c>
       <c r="I18">
-        <v>0.9180545184918721</v>
+        <v>1.559727247489863</v>
       </c>
       <c r="J18">
-        <v>0.9917374879809642</v>
+        <v>-0.002019863843287671</v>
       </c>
       <c r="K18">
-        <v>1.311732626446619</v>
+        <v>4.200701843126027</v>
       </c>
       <c r="L18">
-        <v>1.266352797804681</v>
+        <v>1.559727247489863</v>
       </c>
       <c r="M18">
-        <v>1.129045142892823</v>
+        <v>0.7788536918232876</v>
       </c>
       <c r="N18">
-        <v>1.129045142892823</v>
+        <v>0.7788536918232876</v>
       </c>
       <c r="O18">
-        <v>1.077730163074172</v>
+        <v>0.5192787991813698</v>
       </c>
       <c r="P18">
-        <v>1.189940970744088</v>
+        <v>1.919469742257534</v>
       </c>
       <c r="Q18">
-        <v>1.189940970744088</v>
+        <v>1.919469742257534</v>
       </c>
       <c r="R18">
-        <v>1.220388884669721</v>
+        <v>2.489777767474657</v>
       </c>
       <c r="S18">
-        <v>1.220388884669721</v>
+        <v>2.489777767474657</v>
       </c>
       <c r="T18">
-        <v>1.165954977660247</v>
+        <v>1.234940117943014</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.407038994376164</v>
+        <v>0.07200653982684212</v>
       </c>
       <c r="D19">
-        <v>1.24463338787236</v>
+        <v>6.773557761687894</v>
       </c>
       <c r="E19">
-        <v>0.8594745491258229</v>
+        <v>0.250523179371579</v>
       </c>
       <c r="F19">
-        <v>3.407038994376164</v>
+        <v>1.061763673263158</v>
       </c>
       <c r="G19">
-        <v>1.152241021777958</v>
+        <v>6.773557761687894</v>
       </c>
       <c r="H19">
-        <v>0.8823535581277999</v>
+        <v>0.00388953679631579</v>
       </c>
       <c r="I19">
-        <v>0.7952729918197989</v>
+        <v>0.5191912835710525</v>
       </c>
       <c r="J19">
-        <v>1.24463338787236</v>
+        <v>0.00388953679631579</v>
       </c>
       <c r="K19">
-        <v>3.407038994376164</v>
+        <v>6.773557761687894</v>
       </c>
       <c r="L19">
-        <v>0.8594745491258229</v>
+        <v>0.5191912835710525</v>
       </c>
       <c r="M19">
-        <v>1.052053968499091</v>
+        <v>0.2615404101836841</v>
       </c>
       <c r="N19">
-        <v>1.052053968499091</v>
+        <v>0.2615404101836841</v>
       </c>
       <c r="O19">
-        <v>0.9954871650419944</v>
+        <v>0.5282814978768421</v>
       </c>
       <c r="P19">
-        <v>1.837048977124782</v>
+        <v>2.432212860685087</v>
       </c>
       <c r="Q19">
-        <v>1.837048977124782</v>
+        <v>2.432212860685087</v>
       </c>
       <c r="R19">
-        <v>2.229546481437628</v>
+        <v>3.517549085935789</v>
       </c>
       <c r="S19">
-        <v>2.229546481437628</v>
+        <v>3.517549085935789</v>
       </c>
       <c r="T19">
-        <v>1.390169083849984</v>
+        <v>1.446821995752807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>-0.006718729092105261</v>
+      </c>
+      <c r="D20">
+        <v>3.550257761821579</v>
+      </c>
+      <c r="E20">
+        <v>10.75244500424159</v>
+      </c>
+      <c r="F20">
+        <v>0.001981799332631579</v>
+      </c>
+      <c r="G20">
+        <v>3.550257761821579</v>
+      </c>
+      <c r="H20">
+        <v>7.101607764895791</v>
+      </c>
+      <c r="I20">
+        <v>3.584102029468421</v>
+      </c>
+      <c r="J20">
+        <v>7.101607764895791</v>
+      </c>
+      <c r="K20">
+        <v>3.550257761821579</v>
+      </c>
+      <c r="L20">
+        <v>3.584102029468421</v>
+      </c>
+      <c r="M20">
+        <v>5.342854897182105</v>
+      </c>
+      <c r="N20">
+        <v>5.342854897182105</v>
+      </c>
+      <c r="O20">
+        <v>3.562563864565614</v>
+      </c>
+      <c r="P20">
+        <v>4.745322518728597</v>
+      </c>
+      <c r="Q20">
+        <v>4.745322518728597</v>
+      </c>
+      <c r="R20">
+        <v>4.446556329501842</v>
+      </c>
+      <c r="S20">
+        <v>4.446556329501842</v>
+      </c>
+      <c r="T20">
+        <v>4.16394593844465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.335693275330806</v>
+      </c>
+      <c r="D21">
+        <v>0.002603914104267074</v>
+      </c>
+      <c r="E21">
+        <v>0.0005068676749151764</v>
+      </c>
+      <c r="F21">
+        <v>1.434730850753292</v>
+      </c>
+      <c r="G21">
+        <v>0.002603914104267074</v>
+      </c>
+      <c r="H21">
+        <v>0.006894729762544905</v>
+      </c>
+      <c r="I21">
+        <v>0.3375906547800657</v>
+      </c>
+      <c r="J21">
+        <v>0.006894729762544905</v>
+      </c>
+      <c r="K21">
+        <v>0.002603914104267074</v>
+      </c>
+      <c r="L21">
+        <v>0.3375906547800657</v>
+      </c>
+      <c r="M21">
+        <v>0.1722426922713053</v>
+      </c>
+      <c r="N21">
+        <v>0.1722426922713053</v>
+      </c>
+      <c r="O21">
+        <v>0.5930720784319675</v>
+      </c>
+      <c r="P21">
+        <v>0.1156964328822926</v>
+      </c>
+      <c r="Q21">
+        <v>0.1156964328822926</v>
+      </c>
+      <c r="R21">
+        <v>0.0874233031877862</v>
+      </c>
+      <c r="S21">
+        <v>0.0874233031877862</v>
+      </c>
+      <c r="T21">
+        <v>0.519670048734315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.369073266138435</v>
+      </c>
+      <c r="D22">
+        <v>1.260253285487143</v>
+      </c>
+      <c r="E22">
+        <v>0.004710178862046044</v>
+      </c>
+      <c r="F22">
+        <v>1.570692271962322</v>
+      </c>
+      <c r="G22">
+        <v>1.260253285487143</v>
+      </c>
+      <c r="H22">
+        <v>4.558166583797326</v>
+      </c>
+      <c r="I22">
+        <v>0.5673480213445826</v>
+      </c>
+      <c r="J22">
+        <v>4.558166583797326</v>
+      </c>
+      <c r="K22">
+        <v>1.260253285487143</v>
+      </c>
+      <c r="L22">
+        <v>0.5673480213445826</v>
+      </c>
+      <c r="M22">
+        <v>2.562757302570954</v>
+      </c>
+      <c r="N22">
+        <v>2.562757302570954</v>
+      </c>
+      <c r="O22">
+        <v>2.232068959034744</v>
+      </c>
+      <c r="P22">
+        <v>2.128589296876351</v>
+      </c>
+      <c r="Q22">
+        <v>2.12858929687635</v>
+      </c>
+      <c r="R22">
+        <v>1.911505294029049</v>
+      </c>
+      <c r="S22">
+        <v>1.911505294029049</v>
+      </c>
+      <c r="T22">
+        <v>1.555040601265309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9552687975429606</v>
+      </c>
+      <c r="D23">
+        <v>0.3764207645814031</v>
+      </c>
+      <c r="E23">
+        <v>0.0006892505686102717</v>
+      </c>
+      <c r="F23">
+        <v>0.0277853058582506</v>
+      </c>
+      <c r="G23">
+        <v>0.3764207645814031</v>
+      </c>
+      <c r="H23">
+        <v>0.005483698228616214</v>
+      </c>
+      <c r="I23">
+        <v>0.002206662561325237</v>
+      </c>
+      <c r="J23">
+        <v>0.005483698228616214</v>
+      </c>
+      <c r="K23">
+        <v>0.3764207645814031</v>
+      </c>
+      <c r="L23">
+        <v>0.002206662561325237</v>
+      </c>
+      <c r="M23">
+        <v>0.003845180394970726</v>
+      </c>
+      <c r="N23">
+        <v>0.003845180394970726</v>
+      </c>
+      <c r="O23">
+        <v>0.01182522221606402</v>
+      </c>
+      <c r="P23">
+        <v>0.1280370417904482</v>
+      </c>
+      <c r="Q23">
+        <v>0.1280370417904482</v>
+      </c>
+      <c r="R23">
+        <v>0.1901329724881869</v>
+      </c>
+      <c r="S23">
+        <v>0.1901329724881869</v>
+      </c>
+      <c r="T23">
+        <v>0.227975746556861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7456461477609715</v>
+      </c>
+      <c r="D24">
+        <v>1.523696846253132</v>
+      </c>
+      <c r="E24">
+        <v>0.3073287146593363</v>
+      </c>
+      <c r="F24">
+        <v>1.559396370878425</v>
+      </c>
+      <c r="G24">
+        <v>1.523696846253132</v>
+      </c>
+      <c r="H24">
+        <v>1.082404912359243</v>
+      </c>
+      <c r="I24">
+        <v>2.045999093377911</v>
+      </c>
+      <c r="J24">
+        <v>1.082404912359243</v>
+      </c>
+      <c r="K24">
+        <v>1.523696846253132</v>
+      </c>
+      <c r="L24">
+        <v>2.045999093377911</v>
+      </c>
+      <c r="M24">
+        <v>1.564202002868577</v>
+      </c>
+      <c r="N24">
+        <v>1.564202002868577</v>
+      </c>
+      <c r="O24">
+        <v>1.562600125538526</v>
+      </c>
+      <c r="P24">
+        <v>1.550700283996762</v>
+      </c>
+      <c r="Q24">
+        <v>1.550700283996762</v>
+      </c>
+      <c r="R24">
+        <v>1.543949424560854</v>
+      </c>
+      <c r="S24">
+        <v>1.543949424560854</v>
+      </c>
+      <c r="T24">
+        <v>1.21074534754817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>2.025259966519305</v>
+      </c>
+      <c r="D25">
+        <v>0.2519387160232637</v>
+      </c>
+      <c r="E25">
+        <v>-2.854163081084685E-05</v>
+      </c>
+      <c r="F25">
+        <v>0.4189148744715309</v>
+      </c>
+      <c r="G25">
+        <v>0.2519387160232637</v>
+      </c>
+      <c r="H25">
+        <v>0.001267893328709134</v>
+      </c>
+      <c r="I25">
+        <v>1.30933603096524</v>
+      </c>
+      <c r="J25">
+        <v>0.001267893328709134</v>
+      </c>
+      <c r="K25">
+        <v>0.2519387160232637</v>
+      </c>
+      <c r="L25">
+        <v>1.30933603096524</v>
+      </c>
+      <c r="M25">
+        <v>0.6553019621469743</v>
+      </c>
+      <c r="N25">
+        <v>0.6553019621469743</v>
+      </c>
+      <c r="O25">
+        <v>0.5765062662551599</v>
+      </c>
+      <c r="P25">
+        <v>0.5208475467724042</v>
+      </c>
+      <c r="Q25">
+        <v>0.5208475467724042</v>
+      </c>
+      <c r="R25">
+        <v>0.4536203390851191</v>
+      </c>
+      <c r="S25">
+        <v>0.4536203390851191</v>
+      </c>
+      <c r="T25">
+        <v>0.6677814899462063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.665513089107063</v>
+      </c>
+      <c r="D26">
+        <v>0.2361240166297889</v>
+      </c>
+      <c r="E26">
+        <v>1.534141609514402</v>
+      </c>
+      <c r="F26">
+        <v>1.456365638298007</v>
+      </c>
+      <c r="G26">
+        <v>0.2361240166297889</v>
+      </c>
+      <c r="H26">
+        <v>3.583027535786297</v>
+      </c>
+      <c r="I26">
+        <v>1.41169900500751</v>
+      </c>
+      <c r="J26">
+        <v>3.583027535786297</v>
+      </c>
+      <c r="K26">
+        <v>0.2361240166297889</v>
+      </c>
+      <c r="L26">
+        <v>1.41169900500751</v>
+      </c>
+      <c r="M26">
+        <v>2.497363270396903</v>
+      </c>
+      <c r="N26">
+        <v>2.497363270396903</v>
+      </c>
+      <c r="O26">
+        <v>2.150364059697271</v>
+      </c>
+      <c r="P26">
+        <v>1.743616852474531</v>
+      </c>
+      <c r="Q26">
+        <v>1.743616852474532</v>
+      </c>
+      <c r="R26">
+        <v>1.366743643513346</v>
+      </c>
+      <c r="S26">
+        <v>1.366743643513346</v>
+      </c>
+      <c r="T26">
+        <v>1.481145149057178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.000458632955238661</v>
+      </c>
+      <c r="D27">
+        <v>6.221618661633649</v>
+      </c>
+      <c r="E27">
+        <v>0.7713169030436146</v>
+      </c>
+      <c r="F27">
+        <v>0.2851309699944394</v>
+      </c>
+      <c r="G27">
+        <v>6.221618661633649</v>
+      </c>
+      <c r="H27">
+        <v>0.004998663308177577</v>
+      </c>
+      <c r="I27">
+        <v>0.3117023539009463</v>
+      </c>
+      <c r="J27">
+        <v>0.004998663308177577</v>
+      </c>
+      <c r="K27">
+        <v>6.221618661633649</v>
+      </c>
+      <c r="L27">
+        <v>0.3117023539009463</v>
+      </c>
+      <c r="M27">
+        <v>0.1583505086045619</v>
+      </c>
+      <c r="N27">
+        <v>0.1583505086045619</v>
+      </c>
+      <c r="O27">
+        <v>0.2006106624011877</v>
+      </c>
+      <c r="P27">
+        <v>2.179439892947591</v>
+      </c>
+      <c r="Q27">
+        <v>2.179439892947591</v>
+      </c>
+      <c r="R27">
+        <v>3.189984585119105</v>
+      </c>
+      <c r="S27">
+        <v>3.189984585119105</v>
+      </c>
+      <c r="T27">
+        <v>1.265718153154265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.09472822506684872</v>
+      </c>
+      <c r="D28">
+        <v>6.12182277446185</v>
+      </c>
+      <c r="E28">
+        <v>6.623353786372772</v>
+      </c>
+      <c r="F28">
+        <v>0.0004935904292965664</v>
+      </c>
+      <c r="G28">
+        <v>6.12182277446185</v>
+      </c>
+      <c r="H28">
+        <v>5.753135611041809</v>
+      </c>
+      <c r="I28">
+        <v>0.2527184087704171</v>
+      </c>
+      <c r="J28">
+        <v>5.753135611041809</v>
+      </c>
+      <c r="K28">
+        <v>6.12182277446185</v>
+      </c>
+      <c r="L28">
+        <v>0.2527184087704171</v>
+      </c>
+      <c r="M28">
+        <v>3.002927009906113</v>
+      </c>
+      <c r="N28">
+        <v>3.002927009906113</v>
+      </c>
+      <c r="O28">
+        <v>2.002115870080508</v>
+      </c>
+      <c r="P28">
+        <v>4.042558931424693</v>
+      </c>
+      <c r="Q28">
+        <v>4.042558931424693</v>
+      </c>
+      <c r="R28">
+        <v>4.562374892183982</v>
+      </c>
+      <c r="S28">
+        <v>4.562374892183982</v>
+      </c>
+      <c r="T28">
+        <v>3.141042066023832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>-0.001713409580115199</v>
+      </c>
+      <c r="D29">
+        <v>13.7847461510225</v>
+      </c>
+      <c r="E29">
+        <v>0.003547819519756165</v>
+      </c>
+      <c r="F29">
+        <v>0.004400699825283607</v>
+      </c>
+      <c r="G29">
+        <v>13.7847461510225</v>
+      </c>
+      <c r="H29">
+        <v>-0.002555675968441147</v>
+      </c>
+      <c r="I29">
+        <v>0.5714371306903906</v>
+      </c>
+      <c r="J29">
+        <v>-0.002555675968441147</v>
+      </c>
+      <c r="K29">
+        <v>13.7847461510225</v>
+      </c>
+      <c r="L29">
+        <v>0.5714371306903906</v>
+      </c>
+      <c r="M29">
+        <v>0.2844407273609747</v>
+      </c>
+      <c r="N29">
+        <v>0.2844407273609747</v>
+      </c>
+      <c r="O29">
+        <v>0.1910940515157443</v>
+      </c>
+      <c r="P29">
+        <v>4.784542535248152</v>
+      </c>
+      <c r="Q29">
+        <v>4.784542535248152</v>
+      </c>
+      <c r="R29">
+        <v>7.03459343919174</v>
+      </c>
+      <c r="S29">
+        <v>7.03459343919174</v>
+      </c>
+      <c r="T29">
+        <v>2.393310452584897</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9297348649588021</v>
+        <v>0.9443703863022236</v>
       </c>
       <c r="D4">
-        <v>2.295201069192508</v>
+        <v>0.9343748778797262</v>
       </c>
       <c r="E4">
-        <v>0.9305340276270353</v>
+        <v>2.330233216691653</v>
       </c>
       <c r="F4">
-        <v>0.8808289452622048</v>
+        <v>0.7997726999118639</v>
       </c>
       <c r="G4">
-        <v>2.295201069192508</v>
+        <v>0.9343748778797262</v>
       </c>
       <c r="H4">
-        <v>0.7940542959985416</v>
+        <v>0.7730102248267443</v>
       </c>
       <c r="I4">
-        <v>0.8992459199857777</v>
+        <v>1.002811636934799</v>
       </c>
       <c r="J4">
-        <v>0.7940542959985416</v>
+        <v>0.7730102248267443</v>
       </c>
       <c r="K4">
-        <v>2.295201069192508</v>
+        <v>0.9343748778797262</v>
       </c>
       <c r="L4">
-        <v>0.8992459199857777</v>
+        <v>1.002811636934799</v>
       </c>
       <c r="M4">
-        <v>0.8466501079921597</v>
+        <v>0.8879109308807718</v>
       </c>
       <c r="N4">
-        <v>0.8466501079921597</v>
+        <v>0.8879109308807718</v>
       </c>
       <c r="O4">
-        <v>0.8580430537488414</v>
+        <v>0.8585315205578025</v>
       </c>
       <c r="P4">
-        <v>1.329500428392276</v>
+        <v>0.9033989132137566</v>
       </c>
       <c r="Q4">
-        <v>1.329500428392276</v>
+        <v>0.9033989132137566</v>
       </c>
       <c r="R4">
-        <v>1.570925588592334</v>
+        <v>0.911142904380249</v>
       </c>
       <c r="S4">
-        <v>1.570925588592334</v>
+        <v>0.911142904380249</v>
       </c>
       <c r="T4">
-        <v>1.121599853837478</v>
+        <v>1.130762173757835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9199085696396805</v>
+        <v>-0.00702771271056971</v>
       </c>
       <c r="D5">
-        <v>1.011897913183522</v>
+        <v>3.919014966575007</v>
       </c>
       <c r="E5">
-        <v>2.441112611192259</v>
+        <v>9.499533717428294</v>
       </c>
       <c r="F5">
-        <v>0.7483520581149573</v>
+        <v>0.002086029583255372</v>
       </c>
       <c r="G5">
-        <v>1.011897913183522</v>
+        <v>3.919014966575007</v>
       </c>
       <c r="H5">
-        <v>0.8207730248272439</v>
+        <v>7.858732316483803</v>
       </c>
       <c r="I5">
-        <v>1.021861114168946</v>
+        <v>3.92108801749827</v>
       </c>
       <c r="J5">
-        <v>0.8207730248272439</v>
+        <v>7.858732316483803</v>
       </c>
       <c r="K5">
-        <v>1.011897913183522</v>
+        <v>3.919014966575007</v>
       </c>
       <c r="L5">
-        <v>1.021861114168946</v>
+        <v>3.92108801749827</v>
       </c>
       <c r="M5">
-        <v>0.9213170694980948</v>
+        <v>5.889910166991037</v>
       </c>
       <c r="N5">
-        <v>0.9213170694980948</v>
+        <v>5.889910166991037</v>
       </c>
       <c r="O5">
-        <v>0.8636620657037156</v>
+        <v>3.927302121188443</v>
       </c>
       <c r="P5">
-        <v>0.951510684059904</v>
+        <v>5.232945100185693</v>
       </c>
       <c r="Q5">
-        <v>0.951510684059904</v>
+        <v>5.232945100185693</v>
       </c>
       <c r="R5">
-        <v>0.9666074913408085</v>
+        <v>4.904462566783021</v>
       </c>
       <c r="S5">
-        <v>0.9666074913408085</v>
+        <v>4.904462566783021</v>
       </c>
       <c r="T5">
-        <v>1.160650881854435</v>
+        <v>4.198904555809676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4580077415634901</v>
+        <v>0.9297348649588021</v>
       </c>
       <c r="D6">
-        <v>0.4822671326368677</v>
+        <v>2.295201069192508</v>
       </c>
       <c r="E6">
-        <v>3.499980134799996</v>
+        <v>0.9305340276270353</v>
       </c>
       <c r="F6">
-        <v>0.4145747811741251</v>
+        <v>0.8808289452622048</v>
       </c>
       <c r="G6">
-        <v>0.4822671326368677</v>
+        <v>2.295201069192508</v>
       </c>
       <c r="H6">
-        <v>0.3669825637112307</v>
+        <v>0.7940542959985416</v>
       </c>
       <c r="I6">
-        <v>0.5283836198993422</v>
+        <v>0.8992459199857777</v>
       </c>
       <c r="J6">
-        <v>0.3669825637112307</v>
+        <v>0.7940542959985416</v>
       </c>
       <c r="K6">
-        <v>0.4822671326368677</v>
+        <v>2.295201069192508</v>
       </c>
       <c r="L6">
-        <v>0.5283836198993422</v>
+        <v>0.8992459199857777</v>
       </c>
       <c r="M6">
-        <v>0.4476830918052864</v>
+        <v>0.8466501079921597</v>
       </c>
       <c r="N6">
-        <v>0.4476830918052864</v>
+        <v>0.8466501079921597</v>
       </c>
       <c r="O6">
-        <v>0.436646988261566</v>
+        <v>0.8580430537488414</v>
       </c>
       <c r="P6">
-        <v>0.4592111054158135</v>
+        <v>1.329500428392276</v>
       </c>
       <c r="Q6">
-        <v>0.4592111054158135</v>
+        <v>1.329500428392276</v>
       </c>
       <c r="R6">
-        <v>0.4649751122210771</v>
+        <v>1.570925588592334</v>
       </c>
       <c r="S6">
-        <v>0.4649751122210771</v>
+        <v>1.570925588592334</v>
       </c>
       <c r="T6">
-        <v>0.958365995630842</v>
+        <v>1.121599853837478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.012935254936239</v>
+        <v>0.9199085696396805</v>
       </c>
       <c r="D7">
-        <v>1.228454978911484</v>
+        <v>1.011897913183522</v>
       </c>
       <c r="E7">
-        <v>0.9888178794698183</v>
+        <v>2.441112611192259</v>
       </c>
       <c r="F7">
-        <v>0.9452350798841616</v>
+        <v>0.7483520581149573</v>
       </c>
       <c r="G7">
-        <v>1.228454978911484</v>
+        <v>1.011897913183522</v>
       </c>
       <c r="H7">
-        <v>0.9793871428790225</v>
+        <v>0.8207730248272439</v>
       </c>
       <c r="I7">
-        <v>1.029692699289698</v>
+        <v>1.021861114168946</v>
       </c>
       <c r="J7">
-        <v>0.9793871428790225</v>
+        <v>0.8207730248272439</v>
       </c>
       <c r="K7">
-        <v>1.228454978911484</v>
+        <v>1.011897913183522</v>
       </c>
       <c r="L7">
-        <v>1.029692699289698</v>
+        <v>1.021861114168946</v>
       </c>
       <c r="M7">
-        <v>1.00453992108436</v>
+        <v>0.9213170694980948</v>
       </c>
       <c r="N7">
-        <v>1.00453992108436</v>
+        <v>0.9213170694980948</v>
       </c>
       <c r="O7">
-        <v>0.9847716406842938</v>
+        <v>0.8636620657037156</v>
       </c>
       <c r="P7">
-        <v>1.079178273693401</v>
+        <v>0.951510684059904</v>
       </c>
       <c r="Q7">
-        <v>1.079178273693401</v>
+        <v>0.951510684059904</v>
       </c>
       <c r="R7">
-        <v>1.116497449997922</v>
+        <v>0.9666074913408085</v>
       </c>
       <c r="S7">
-        <v>1.116497449997922</v>
+        <v>0.9666074913408085</v>
       </c>
       <c r="T7">
-        <v>1.030753839228404</v>
+        <v>1.160650881854435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9760029666537953</v>
+        <v>0.4580077415634901</v>
       </c>
       <c r="D8">
-        <v>0.9833262660746653</v>
+        <v>0.4822671326368677</v>
       </c>
       <c r="E8">
-        <v>1.102137910282777</v>
+        <v>3.499980134799996</v>
       </c>
       <c r="F8">
-        <v>0.9861571606660212</v>
+        <v>0.4145747811741251</v>
       </c>
       <c r="G8">
-        <v>0.9833262660746653</v>
+        <v>0.4822671326368677</v>
       </c>
       <c r="H8">
-        <v>1.020796476260661</v>
+        <v>0.3669825637112307</v>
       </c>
       <c r="I8">
-        <v>1.045102575412123</v>
+        <v>0.5283836198993422</v>
       </c>
       <c r="J8">
-        <v>1.020796476260661</v>
+        <v>0.3669825637112307</v>
       </c>
       <c r="K8">
-        <v>0.9833262660746653</v>
+        <v>0.4822671326368677</v>
       </c>
       <c r="L8">
-        <v>1.045102575412123</v>
+        <v>0.5283836198993422</v>
       </c>
       <c r="M8">
-        <v>1.032949525836392</v>
+        <v>0.4476830918052864</v>
       </c>
       <c r="N8">
-        <v>1.032949525836392</v>
+        <v>0.4476830918052864</v>
       </c>
       <c r="O8">
-        <v>1.017352070779602</v>
+        <v>0.436646988261566</v>
       </c>
       <c r="P8">
-        <v>1.016408439249149</v>
+        <v>0.4592111054158135</v>
       </c>
       <c r="Q8">
-        <v>1.016408439249149</v>
+        <v>0.4592111054158135</v>
       </c>
       <c r="R8">
-        <v>1.008137895955528</v>
+        <v>0.4649751122210771</v>
       </c>
       <c r="S8">
-        <v>1.008137895955528</v>
+        <v>0.4649751122210771</v>
       </c>
       <c r="T8">
-        <v>1.018920559225007</v>
+        <v>0.958365995630842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9855017272006866</v>
+        <v>1.012935254936239</v>
       </c>
       <c r="D9">
-        <v>1.229205207027086</v>
+        <v>1.228454978911484</v>
       </c>
       <c r="E9">
-        <v>1.083309460784969</v>
+        <v>0.9888178794698183</v>
       </c>
       <c r="F9">
-        <v>0.8406442455800632</v>
+        <v>0.9452350798841616</v>
       </c>
       <c r="G9">
-        <v>1.229205207027086</v>
+        <v>1.228454978911484</v>
       </c>
       <c r="H9">
-        <v>0.9058005671829026</v>
+        <v>0.9793871428790225</v>
       </c>
       <c r="I9">
-        <v>1.050702399134384</v>
+        <v>1.029692699289698</v>
       </c>
       <c r="J9">
-        <v>0.9058005671829026</v>
+        <v>0.9793871428790225</v>
       </c>
       <c r="K9">
-        <v>1.229205207027086</v>
+        <v>1.228454978911484</v>
       </c>
       <c r="L9">
-        <v>1.050702399134384</v>
+        <v>1.029692699289698</v>
       </c>
       <c r="M9">
-        <v>0.9782514831586435</v>
+        <v>1.00453992108436</v>
       </c>
       <c r="N9">
-        <v>0.9782514831586435</v>
+        <v>1.00453992108436</v>
       </c>
       <c r="O9">
-        <v>0.9323824039657834</v>
+        <v>0.9847716406842938</v>
       </c>
       <c r="P9">
-        <v>1.061902724448124</v>
+        <v>1.079178273693401</v>
       </c>
       <c r="Q9">
-        <v>1.061902724448124</v>
+        <v>1.079178273693401</v>
       </c>
       <c r="R9">
-        <v>1.103728345092865</v>
+        <v>1.116497449997922</v>
       </c>
       <c r="S9">
-        <v>1.103728345092865</v>
+        <v>1.116497449997922</v>
       </c>
       <c r="T9">
-        <v>1.015860601151682</v>
+        <v>1.030753839228404</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4474689269828386</v>
+        <v>0.9760029666537953</v>
       </c>
       <c r="D10">
-        <v>0.4082602386962613</v>
+        <v>0.9833262660746653</v>
       </c>
       <c r="E10">
-        <v>3.678218110641753</v>
+        <v>1.102137910282777</v>
       </c>
       <c r="F10">
-        <v>0.3460809468471422</v>
+        <v>0.9861571606660212</v>
       </c>
       <c r="G10">
-        <v>0.4082602386962613</v>
+        <v>0.9833262660746653</v>
       </c>
       <c r="H10">
-        <v>0.4858550124202515</v>
+        <v>1.020796476260661</v>
       </c>
       <c r="I10">
-        <v>0.4817468412465913</v>
+        <v>1.045102575412123</v>
       </c>
       <c r="J10">
-        <v>0.4858550124202515</v>
+        <v>1.020796476260661</v>
       </c>
       <c r="K10">
-        <v>0.4082602386962613</v>
+        <v>0.9833262660746653</v>
       </c>
       <c r="L10">
-        <v>0.4817468412465913</v>
+        <v>1.045102575412123</v>
       </c>
       <c r="M10">
-        <v>0.4838009268334214</v>
+        <v>1.032949525836392</v>
       </c>
       <c r="N10">
-        <v>0.4838009268334214</v>
+        <v>1.032949525836392</v>
       </c>
       <c r="O10">
-        <v>0.437894266837995</v>
+        <v>1.017352070779602</v>
       </c>
       <c r="P10">
-        <v>0.458620697454368</v>
+        <v>1.016408439249149</v>
       </c>
       <c r="Q10">
-        <v>0.458620697454368</v>
+        <v>1.016408439249149</v>
       </c>
       <c r="R10">
-        <v>0.4460305827648413</v>
+        <v>1.008137895955528</v>
       </c>
       <c r="S10">
-        <v>0.4460305827648413</v>
+        <v>1.008137895955528</v>
       </c>
       <c r="T10">
-        <v>0.9746050128058062</v>
+        <v>1.018920559225007</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.954861566780283</v>
+        <v>0.9855017272006866</v>
       </c>
       <c r="D11">
-        <v>2.286071437904318</v>
+        <v>1.229205207027086</v>
       </c>
       <c r="E11">
-        <v>1.044135925091225</v>
+        <v>1.083309460784969</v>
       </c>
       <c r="F11">
-        <v>0.8506884680692347</v>
+        <v>0.8406442455800632</v>
       </c>
       <c r="G11">
-        <v>2.286071437904318</v>
+        <v>1.229205207027086</v>
       </c>
       <c r="H11">
-        <v>0.8675905918781308</v>
+        <v>0.9058005671829026</v>
       </c>
       <c r="I11">
-        <v>0.8902137320914962</v>
+        <v>1.050702399134384</v>
       </c>
       <c r="J11">
-        <v>0.8675905918781308</v>
+        <v>0.9058005671829026</v>
       </c>
       <c r="K11">
-        <v>2.286071437904318</v>
+        <v>1.229205207027086</v>
       </c>
       <c r="L11">
-        <v>0.8902137320914962</v>
+        <v>1.050702399134384</v>
       </c>
       <c r="M11">
-        <v>0.8789021619848135</v>
+        <v>0.9782514831586435</v>
       </c>
       <c r="N11">
-        <v>0.8789021619848135</v>
+        <v>0.9782514831586435</v>
       </c>
       <c r="O11">
-        <v>0.8694975973462872</v>
+        <v>0.9323824039657834</v>
       </c>
       <c r="P11">
-        <v>1.347958587291315</v>
+        <v>1.061902724448124</v>
       </c>
       <c r="Q11">
-        <v>1.347958587291315</v>
+        <v>1.061902724448124</v>
       </c>
       <c r="R11">
-        <v>1.582486799944566</v>
+        <v>1.103728345092865</v>
       </c>
       <c r="S11">
-        <v>1.582486799944566</v>
+        <v>1.103728345092865</v>
       </c>
       <c r="T11">
-        <v>1.148926953635781</v>
+        <v>1.015860601151682</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8352893121543952</v>
+        <v>0.4474689269828386</v>
       </c>
       <c r="D12">
-        <v>0.832532078155549</v>
+        <v>0.4082602386962613</v>
       </c>
       <c r="E12">
-        <v>2.790471861105376</v>
+        <v>3.678218110641753</v>
       </c>
       <c r="F12">
-        <v>0.6401289253327029</v>
+        <v>0.3460809468471422</v>
       </c>
       <c r="G12">
-        <v>0.832532078155549</v>
+        <v>0.4082602386962613</v>
       </c>
       <c r="H12">
-        <v>1.152033608064081</v>
+        <v>0.4858550124202515</v>
       </c>
       <c r="I12">
-        <v>0.9122524450341883</v>
+        <v>0.4817468412465913</v>
       </c>
       <c r="J12">
-        <v>1.152033608064081</v>
+        <v>0.4858550124202515</v>
       </c>
       <c r="K12">
-        <v>0.832532078155549</v>
+        <v>0.4082602386962613</v>
       </c>
       <c r="L12">
-        <v>0.9122524450341883</v>
+        <v>0.4817468412465913</v>
       </c>
       <c r="M12">
-        <v>1.032143026549135</v>
+        <v>0.4838009268334214</v>
       </c>
       <c r="N12">
-        <v>1.032143026549135</v>
+        <v>0.4838009268334214</v>
       </c>
       <c r="O12">
-        <v>0.9014716594769908</v>
+        <v>0.437894266837995</v>
       </c>
       <c r="P12">
-        <v>0.9656060437512727</v>
+        <v>0.458620697454368</v>
       </c>
       <c r="Q12">
-        <v>0.9656060437512727</v>
+        <v>0.458620697454368</v>
       </c>
       <c r="R12">
-        <v>0.9323375523523418</v>
+        <v>0.4460305827648413</v>
       </c>
       <c r="S12">
-        <v>0.9323375523523418</v>
+        <v>0.4460305827648413</v>
       </c>
       <c r="T12">
-        <v>1.193784704974382</v>
+        <v>0.9746050128058062</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9513813946451348</v>
+        <v>0.954861566780283</v>
       </c>
       <c r="D13">
-        <v>1.001615656741401</v>
+        <v>2.286071437904318</v>
       </c>
       <c r="E13">
-        <v>0.5830423342163952</v>
+        <v>1.044135925091225</v>
       </c>
       <c r="F13">
-        <v>0.9947515069453476</v>
+        <v>0.8506884680692347</v>
       </c>
       <c r="G13">
-        <v>1.001615656741401</v>
+        <v>2.286071437904318</v>
       </c>
       <c r="H13">
-        <v>1.561035089696983</v>
+        <v>0.8675905918781308</v>
       </c>
       <c r="I13">
-        <v>0.8280923925006983</v>
+        <v>0.8902137320914962</v>
       </c>
       <c r="J13">
-        <v>1.561035089696983</v>
+        <v>0.8675905918781308</v>
       </c>
       <c r="K13">
-        <v>1.001615656741401</v>
+        <v>2.286071437904318</v>
       </c>
       <c r="L13">
-        <v>0.8280923925006983</v>
+        <v>0.8902137320914962</v>
       </c>
       <c r="M13">
-        <v>1.194563741098841</v>
+        <v>0.8789021619848135</v>
       </c>
       <c r="N13">
-        <v>1.194563741098841</v>
+        <v>0.8789021619848135</v>
       </c>
       <c r="O13">
-        <v>1.127959663047676</v>
+        <v>0.8694975973462872</v>
       </c>
       <c r="P13">
-        <v>1.130247712979694</v>
+        <v>1.347958587291315</v>
       </c>
       <c r="Q13">
-        <v>1.130247712979694</v>
+        <v>1.347958587291315</v>
       </c>
       <c r="R13">
-        <v>1.098089698920121</v>
+        <v>1.582486799944566</v>
       </c>
       <c r="S13">
-        <v>1.098089698920121</v>
+        <v>1.582486799944566</v>
       </c>
       <c r="T13">
-        <v>0.98665306245766</v>
+        <v>1.148926953635781</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.006201342399999991</v>
+        <v>0.8352893121543952</v>
       </c>
       <c r="D14">
-        <v>-0.009920246800000003</v>
+        <v>0.832532078155549</v>
       </c>
       <c r="E14">
-        <v>4.626424900000001</v>
+        <v>2.790471861105376</v>
       </c>
       <c r="F14">
-        <v>-0.003013859000000002</v>
+        <v>0.6401289253327029</v>
       </c>
       <c r="G14">
-        <v>-0.009920246800000003</v>
+        <v>0.832532078155549</v>
       </c>
       <c r="H14">
-        <v>0.009524659099999999</v>
+        <v>1.152033608064081</v>
       </c>
       <c r="I14">
-        <v>0.02413487400000002</v>
+        <v>0.9122524450341883</v>
       </c>
       <c r="J14">
-        <v>0.009524659099999999</v>
+        <v>1.152033608064081</v>
       </c>
       <c r="K14">
-        <v>-0.009920246800000003</v>
+        <v>0.832532078155549</v>
       </c>
       <c r="L14">
-        <v>0.02413487400000002</v>
+        <v>0.9122524450341883</v>
       </c>
       <c r="M14">
-        <v>0.01682976655000001</v>
+        <v>1.032143026549135</v>
       </c>
       <c r="N14">
-        <v>0.01682976655000001</v>
+        <v>1.032143026549135</v>
       </c>
       <c r="O14">
-        <v>0.0102152247</v>
+        <v>0.9014716594769908</v>
       </c>
       <c r="P14">
-        <v>0.007913095433333336</v>
+        <v>0.9656060437512727</v>
       </c>
       <c r="Q14">
-        <v>0.007913095433333338</v>
+        <v>0.9656060437512727</v>
       </c>
       <c r="R14">
-        <v>0.003454759875000003</v>
+        <v>0.9323375523523418</v>
       </c>
       <c r="S14">
-        <v>0.003454759875000003</v>
+        <v>0.9323375523523418</v>
       </c>
       <c r="T14">
-        <v>0.7734914974833336</v>
+        <v>1.193784704974382</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.0094704848</v>
+        <v>0.9513813946451348</v>
       </c>
       <c r="D15">
-        <v>-0.020369101</v>
+        <v>1.001615656741401</v>
       </c>
       <c r="E15">
-        <v>0.012563197</v>
+        <v>0.5830423342163952</v>
       </c>
       <c r="F15">
-        <v>0.017015373</v>
+        <v>0.9947515069453476</v>
       </c>
       <c r="G15">
-        <v>-0.020369101</v>
+        <v>1.001615656741401</v>
       </c>
       <c r="H15">
-        <v>-0.0043404773</v>
+        <v>1.561035089696983</v>
       </c>
       <c r="I15">
-        <v>1.5437086</v>
+        <v>0.8280923925006983</v>
       </c>
       <c r="J15">
-        <v>-0.0043404773</v>
+        <v>1.561035089696983</v>
       </c>
       <c r="K15">
-        <v>-0.020369101</v>
+        <v>1.001615656741401</v>
       </c>
       <c r="L15">
-        <v>1.5437086</v>
+        <v>0.8280923925006983</v>
       </c>
       <c r="M15">
-        <v>0.76968406135</v>
+        <v>1.194563741098841</v>
       </c>
       <c r="N15">
-        <v>0.76968406135</v>
+        <v>1.194563741098841</v>
       </c>
       <c r="O15">
-        <v>0.5187944985666667</v>
+        <v>1.127959663047676</v>
       </c>
       <c r="P15">
-        <v>0.5063330072333333</v>
+        <v>1.130247712979694</v>
       </c>
       <c r="Q15">
-        <v>0.5063330072333333</v>
+        <v>1.130247712979694</v>
       </c>
       <c r="R15">
-        <v>0.374657480175</v>
+        <v>1.098089698920121</v>
       </c>
       <c r="S15">
-        <v>0.374657480175</v>
+        <v>1.098089698920121</v>
       </c>
       <c r="T15">
-        <v>0.25651785115</v>
+        <v>0.98665306245766</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.0067091534</v>
+        <v>-0.006201342399999991</v>
       </c>
       <c r="D16">
-        <v>121.14151</v>
+        <v>-0.009920246800000003</v>
       </c>
       <c r="E16">
-        <v>0.010282672</v>
+        <v>4.626424900000001</v>
       </c>
       <c r="F16">
-        <v>-0.0017802751</v>
+        <v>-0.003013859000000002</v>
       </c>
       <c r="G16">
-        <v>121.14151</v>
+        <v>-0.009920246800000003</v>
       </c>
       <c r="H16">
-        <v>0.00070900843</v>
+        <v>0.009524659099999999</v>
       </c>
       <c r="I16">
-        <v>-0.012240956</v>
+        <v>0.02413487400000002</v>
       </c>
       <c r="J16">
-        <v>0.00070900843</v>
+        <v>0.009524659099999999</v>
       </c>
       <c r="K16">
-        <v>121.14151</v>
+        <v>-0.009920246800000003</v>
       </c>
       <c r="L16">
-        <v>-0.012240956</v>
+        <v>0.02413487400000002</v>
       </c>
       <c r="M16">
-        <v>-0.005765973785000001</v>
+        <v>0.01682976655000001</v>
       </c>
       <c r="N16">
-        <v>-0.005765973785000001</v>
+        <v>0.01682976655000001</v>
       </c>
       <c r="O16">
-        <v>-0.004437407556666668</v>
+        <v>0.0102152247</v>
       </c>
       <c r="P16">
-        <v>40.37665935080999</v>
+        <v>0.007913095433333336</v>
       </c>
       <c r="Q16">
-        <v>40.37665935080999</v>
+        <v>0.007913095433333338</v>
       </c>
       <c r="R16">
-        <v>60.5678720131075</v>
+        <v>0.003454759875000003</v>
       </c>
       <c r="S16">
-        <v>60.5678720131075</v>
+        <v>0.003454759875000003</v>
       </c>
       <c r="T16">
-        <v>20.18862854932167</v>
+        <v>0.7734914974833336</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-0.0018304812</v>
+        <v>-0.0094704848</v>
       </c>
       <c r="D17">
-        <v>-0.016485555</v>
+        <v>-0.020369101</v>
       </c>
       <c r="E17">
-        <v>0.016145804</v>
+        <v>0.012563197</v>
       </c>
       <c r="F17">
-        <v>0.0042085606</v>
+        <v>0.017015373</v>
       </c>
       <c r="G17">
-        <v>-0.016485555</v>
+        <v>-0.020369101</v>
       </c>
       <c r="H17">
-        <v>-0.02956329</v>
+        <v>-0.0043404773</v>
       </c>
       <c r="I17">
-        <v>0.004237495</v>
+        <v>1.5437086</v>
       </c>
       <c r="J17">
-        <v>-0.02956329</v>
+        <v>-0.0043404773</v>
       </c>
       <c r="K17">
-        <v>-0.016485555</v>
+        <v>-0.020369101</v>
       </c>
       <c r="L17">
-        <v>0.004237495</v>
+        <v>1.5437086</v>
       </c>
       <c r="M17">
-        <v>-0.0126628975</v>
+        <v>0.76968406135</v>
       </c>
       <c r="N17">
-        <v>-0.0126628975</v>
+        <v>0.76968406135</v>
       </c>
       <c r="O17">
-        <v>-0.007039078133333332</v>
+        <v>0.5187944985666667</v>
       </c>
       <c r="P17">
-        <v>-0.01393711666666667</v>
+        <v>0.5063330072333333</v>
       </c>
       <c r="Q17">
-        <v>-0.01393711666666667</v>
+        <v>0.5063330072333333</v>
       </c>
       <c r="R17">
-        <v>-0.01457422625</v>
+        <v>0.374657480175</v>
       </c>
       <c r="S17">
-        <v>-0.01457422625</v>
+        <v>0.374657480175</v>
       </c>
       <c r="T17">
-        <v>-0.003881244433333333</v>
+        <v>0.25651785115</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.648290373209315</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="D18">
-        <v>4.200701843126027</v>
+        <v>121.14151</v>
       </c>
       <c r="E18">
-        <v>0.002812093778630137</v>
+        <v>0.010282672</v>
       </c>
       <c r="F18">
-        <v>0.0001290138975342463</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="G18">
-        <v>4.200701843126027</v>
+        <v>121.14151</v>
       </c>
       <c r="H18">
-        <v>-0.002019863843287671</v>
+        <v>0.00070900843</v>
       </c>
       <c r="I18">
-        <v>1.559727247489863</v>
+        <v>-0.012240956</v>
       </c>
       <c r="J18">
-        <v>-0.002019863843287671</v>
+        <v>0.00070900843</v>
       </c>
       <c r="K18">
-        <v>4.200701843126027</v>
+        <v>121.14151</v>
       </c>
       <c r="L18">
-        <v>1.559727247489863</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M18">
-        <v>0.7788536918232876</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="N18">
-        <v>0.7788536918232876</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="O18">
-        <v>0.5192787991813698</v>
+        <v>-0.004437407556666668</v>
       </c>
       <c r="P18">
-        <v>1.919469742257534</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="Q18">
-        <v>1.919469742257534</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="R18">
-        <v>2.489777767474657</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="S18">
-        <v>2.489777767474657</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="T18">
-        <v>1.234940117943014</v>
+        <v>20.18862854932167</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.07200653982684212</v>
+        <v>-0.0018304812</v>
       </c>
       <c r="D19">
-        <v>6.773557761687894</v>
+        <v>-0.016485555</v>
       </c>
       <c r="E19">
-        <v>0.250523179371579</v>
+        <v>0.016145804</v>
       </c>
       <c r="F19">
-        <v>1.061763673263158</v>
+        <v>0.0042085606</v>
       </c>
       <c r="G19">
-        <v>6.773557761687894</v>
+        <v>-0.016485555</v>
       </c>
       <c r="H19">
-        <v>0.00388953679631579</v>
+        <v>-0.02956329</v>
       </c>
       <c r="I19">
-        <v>0.5191912835710525</v>
+        <v>0.004237495</v>
       </c>
       <c r="J19">
-        <v>0.00388953679631579</v>
+        <v>-0.02956329</v>
       </c>
       <c r="K19">
-        <v>6.773557761687894</v>
+        <v>-0.016485555</v>
       </c>
       <c r="L19">
-        <v>0.5191912835710525</v>
+        <v>0.004237495</v>
       </c>
       <c r="M19">
-        <v>0.2615404101836841</v>
+        <v>-0.0126628975</v>
       </c>
       <c r="N19">
-        <v>0.2615404101836841</v>
+        <v>-0.0126628975</v>
       </c>
       <c r="O19">
-        <v>0.5282814978768421</v>
+        <v>-0.007039078133333332</v>
       </c>
       <c r="P19">
-        <v>2.432212860685087</v>
+        <v>-0.01393711666666667</v>
       </c>
       <c r="Q19">
-        <v>2.432212860685087</v>
+        <v>-0.01393711666666667</v>
       </c>
       <c r="R19">
-        <v>3.517549085935789</v>
+        <v>-0.01457422625</v>
       </c>
       <c r="S19">
-        <v>3.517549085935789</v>
+        <v>-0.01457422625</v>
       </c>
       <c r="T19">
-        <v>1.446821995752807</v>
+        <v>-0.003881244433333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>-0.006718729092105261</v>
+        <v>1.648290373209315</v>
       </c>
       <c r="D20">
-        <v>3.550257761821579</v>
+        <v>4.200701843126027</v>
       </c>
       <c r="E20">
-        <v>10.75244500424159</v>
+        <v>0.002812093778630137</v>
       </c>
       <c r="F20">
-        <v>0.001981799332631579</v>
+        <v>0.0001290138975342463</v>
       </c>
       <c r="G20">
-        <v>3.550257761821579</v>
+        <v>4.200701843126027</v>
       </c>
       <c r="H20">
-        <v>7.101607764895791</v>
+        <v>-0.002019863843287671</v>
       </c>
       <c r="I20">
-        <v>3.584102029468421</v>
+        <v>1.559727247489863</v>
       </c>
       <c r="J20">
-        <v>7.101607764895791</v>
+        <v>-0.002019863843287671</v>
       </c>
       <c r="K20">
-        <v>3.550257761821579</v>
+        <v>4.200701843126027</v>
       </c>
       <c r="L20">
-        <v>3.584102029468421</v>
+        <v>1.559727247489863</v>
       </c>
       <c r="M20">
-        <v>5.342854897182105</v>
+        <v>0.7788536918232876</v>
       </c>
       <c r="N20">
-        <v>5.342854897182105</v>
+        <v>0.7788536918232876</v>
       </c>
       <c r="O20">
-        <v>3.562563864565614</v>
+        <v>0.5192787991813698</v>
       </c>
       <c r="P20">
-        <v>4.745322518728597</v>
+        <v>1.919469742257534</v>
       </c>
       <c r="Q20">
-        <v>4.745322518728597</v>
+        <v>1.919469742257534</v>
       </c>
       <c r="R20">
-        <v>4.446556329501842</v>
+        <v>2.489777767474657</v>
       </c>
       <c r="S20">
-        <v>4.446556329501842</v>
+        <v>2.489777767474657</v>
       </c>
       <c r="T20">
-        <v>4.16394593844465</v>
+        <v>1.234940117943014</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.335693275330806</v>
+        <v>0.07200653982684212</v>
       </c>
       <c r="D21">
-        <v>0.002603914104267074</v>
+        <v>6.773557761687894</v>
       </c>
       <c r="E21">
-        <v>0.0005068676749151764</v>
+        <v>0.250523179371579</v>
       </c>
       <c r="F21">
-        <v>1.434730850753292</v>
+        <v>1.061763673263158</v>
       </c>
       <c r="G21">
-        <v>0.002603914104267074</v>
+        <v>6.773557761687894</v>
       </c>
       <c r="H21">
-        <v>0.006894729762544905</v>
+        <v>0.00388953679631579</v>
       </c>
       <c r="I21">
-        <v>0.3375906547800657</v>
+        <v>0.5191912835710525</v>
       </c>
       <c r="J21">
-        <v>0.006894729762544905</v>
+        <v>0.00388953679631579</v>
       </c>
       <c r="K21">
-        <v>0.002603914104267074</v>
+        <v>6.773557761687894</v>
       </c>
       <c r="L21">
-        <v>0.3375906547800657</v>
+        <v>0.5191912835710525</v>
       </c>
       <c r="M21">
-        <v>0.1722426922713053</v>
+        <v>0.2615404101836841</v>
       </c>
       <c r="N21">
-        <v>0.1722426922713053</v>
+        <v>0.2615404101836841</v>
       </c>
       <c r="O21">
-        <v>0.5930720784319675</v>
+        <v>0.5282814978768421</v>
       </c>
       <c r="P21">
-        <v>0.1156964328822926</v>
+        <v>2.432212860685087</v>
       </c>
       <c r="Q21">
-        <v>0.1156964328822926</v>
+        <v>2.432212860685087</v>
       </c>
       <c r="R21">
-        <v>0.0874233031877862</v>
+        <v>3.517549085935789</v>
       </c>
       <c r="S21">
-        <v>0.0874233031877862</v>
+        <v>3.517549085935789</v>
       </c>
       <c r="T21">
-        <v>0.519670048734315</v>
+        <v>1.446821995752807</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.369073266138435</v>
+        <v>-0.006718729092105261</v>
       </c>
       <c r="D22">
-        <v>1.260253285487143</v>
+        <v>3.550257761821579</v>
       </c>
       <c r="E22">
-        <v>0.004710178862046044</v>
+        <v>10.75244500424159</v>
       </c>
       <c r="F22">
-        <v>1.570692271962322</v>
+        <v>0.001981799332631579</v>
       </c>
       <c r="G22">
-        <v>1.260253285487143</v>
+        <v>3.550257761821579</v>
       </c>
       <c r="H22">
-        <v>4.558166583797326</v>
+        <v>7.101607764895791</v>
       </c>
       <c r="I22">
-        <v>0.5673480213445826</v>
+        <v>3.584102029468421</v>
       </c>
       <c r="J22">
-        <v>4.558166583797326</v>
+        <v>7.101607764895791</v>
       </c>
       <c r="K22">
-        <v>1.260253285487143</v>
+        <v>3.550257761821579</v>
       </c>
       <c r="L22">
-        <v>0.5673480213445826</v>
+        <v>3.584102029468421</v>
       </c>
       <c r="M22">
-        <v>2.562757302570954</v>
+        <v>5.342854897182105</v>
       </c>
       <c r="N22">
-        <v>2.562757302570954</v>
+        <v>5.342854897182105</v>
       </c>
       <c r="O22">
-        <v>2.232068959034744</v>
+        <v>3.562563864565614</v>
       </c>
       <c r="P22">
-        <v>2.128589296876351</v>
+        <v>4.745322518728597</v>
       </c>
       <c r="Q22">
-        <v>2.12858929687635</v>
+        <v>4.745322518728597</v>
       </c>
       <c r="R22">
-        <v>1.911505294029049</v>
+        <v>4.446556329501842</v>
       </c>
       <c r="S22">
-        <v>1.911505294029049</v>
+        <v>4.446556329501842</v>
       </c>
       <c r="T22">
-        <v>1.555040601265309</v>
+        <v>4.16394593844465</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9552687975429606</v>
+        <v>1.335693275330806</v>
       </c>
       <c r="D23">
-        <v>0.3764207645814031</v>
+        <v>0.002603914104267074</v>
       </c>
       <c r="E23">
-        <v>0.0006892505686102717</v>
+        <v>0.0005068676749151764</v>
       </c>
       <c r="F23">
-        <v>0.0277853058582506</v>
+        <v>1.434730850753292</v>
       </c>
       <c r="G23">
-        <v>0.3764207645814031</v>
+        <v>0.002603914104267074</v>
       </c>
       <c r="H23">
-        <v>0.005483698228616214</v>
+        <v>0.006894729762544905</v>
       </c>
       <c r="I23">
-        <v>0.002206662561325237</v>
+        <v>0.3375906547800657</v>
       </c>
       <c r="J23">
-        <v>0.005483698228616214</v>
+        <v>0.006894729762544905</v>
       </c>
       <c r="K23">
-        <v>0.3764207645814031</v>
+        <v>0.002603914104267074</v>
       </c>
       <c r="L23">
-        <v>0.002206662561325237</v>
+        <v>0.3375906547800657</v>
       </c>
       <c r="M23">
-        <v>0.003845180394970726</v>
+        <v>0.1722426922713053</v>
       </c>
       <c r="N23">
-        <v>0.003845180394970726</v>
+        <v>0.1722426922713053</v>
       </c>
       <c r="O23">
-        <v>0.01182522221606402</v>
+        <v>0.5930720784319675</v>
       </c>
       <c r="P23">
-        <v>0.1280370417904482</v>
+        <v>0.1156964328822926</v>
       </c>
       <c r="Q23">
-        <v>0.1280370417904482</v>
+        <v>0.1156964328822926</v>
       </c>
       <c r="R23">
-        <v>0.1901329724881869</v>
+        <v>0.0874233031877862</v>
       </c>
       <c r="S23">
-        <v>0.1901329724881869</v>
+        <v>0.0874233031877862</v>
       </c>
       <c r="T23">
-        <v>0.227975746556861</v>
+        <v>0.519670048734315</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7456461477609715</v>
+        <v>1.369073266138435</v>
       </c>
       <c r="D24">
-        <v>1.523696846253132</v>
+        <v>1.260253285487143</v>
       </c>
       <c r="E24">
-        <v>0.3073287146593363</v>
+        <v>0.004710178862046044</v>
       </c>
       <c r="F24">
-        <v>1.559396370878425</v>
+        <v>1.570692271962322</v>
       </c>
       <c r="G24">
-        <v>1.523696846253132</v>
+        <v>1.260253285487143</v>
       </c>
       <c r="H24">
-        <v>1.082404912359243</v>
+        <v>4.558166583797326</v>
       </c>
       <c r="I24">
-        <v>2.045999093377911</v>
+        <v>0.5673480213445826</v>
       </c>
       <c r="J24">
-        <v>1.082404912359243</v>
+        <v>4.558166583797326</v>
       </c>
       <c r="K24">
-        <v>1.523696846253132</v>
+        <v>1.260253285487143</v>
       </c>
       <c r="L24">
-        <v>2.045999093377911</v>
+        <v>0.5673480213445826</v>
       </c>
       <c r="M24">
-        <v>1.564202002868577</v>
+        <v>2.562757302570954</v>
       </c>
       <c r="N24">
-        <v>1.564202002868577</v>
+        <v>2.562757302570954</v>
       </c>
       <c r="O24">
-        <v>1.562600125538526</v>
+        <v>2.232068959034744</v>
       </c>
       <c r="P24">
-        <v>1.550700283996762</v>
+        <v>2.128589296876351</v>
       </c>
       <c r="Q24">
-        <v>1.550700283996762</v>
+        <v>2.12858929687635</v>
       </c>
       <c r="R24">
-        <v>1.543949424560854</v>
+        <v>1.911505294029049</v>
       </c>
       <c r="S24">
-        <v>1.543949424560854</v>
+        <v>1.911505294029049</v>
       </c>
       <c r="T24">
-        <v>1.21074534754817</v>
+        <v>1.555040601265309</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.025259966519305</v>
+        <v>0.9552687975429606</v>
       </c>
       <c r="D25">
-        <v>0.2519387160232637</v>
+        <v>0.3764207645814031</v>
       </c>
       <c r="E25">
-        <v>-2.854163081084685E-05</v>
+        <v>0.0006892505686102717</v>
       </c>
       <c r="F25">
-        <v>0.4189148744715309</v>
+        <v>0.0277853058582506</v>
       </c>
       <c r="G25">
-        <v>0.2519387160232637</v>
+        <v>0.3764207645814031</v>
       </c>
       <c r="H25">
-        <v>0.001267893328709134</v>
+        <v>0.005483698228616214</v>
       </c>
       <c r="I25">
-        <v>1.30933603096524</v>
+        <v>0.002206662561325237</v>
       </c>
       <c r="J25">
-        <v>0.001267893328709134</v>
+        <v>0.005483698228616214</v>
       </c>
       <c r="K25">
-        <v>0.2519387160232637</v>
+        <v>0.3764207645814031</v>
       </c>
       <c r="L25">
-        <v>1.30933603096524</v>
+        <v>0.002206662561325237</v>
       </c>
       <c r="M25">
-        <v>0.6553019621469743</v>
+        <v>0.003845180394970726</v>
       </c>
       <c r="N25">
-        <v>0.6553019621469743</v>
+        <v>0.003845180394970726</v>
       </c>
       <c r="O25">
-        <v>0.5765062662551599</v>
+        <v>0.01182522221606402</v>
       </c>
       <c r="P25">
-        <v>0.5208475467724042</v>
+        <v>0.1280370417904482</v>
       </c>
       <c r="Q25">
-        <v>0.5208475467724042</v>
+        <v>0.1280370417904482</v>
       </c>
       <c r="R25">
-        <v>0.4536203390851191</v>
+        <v>0.1901329724881869</v>
       </c>
       <c r="S25">
-        <v>0.4536203390851191</v>
+        <v>0.1901329724881869</v>
       </c>
       <c r="T25">
-        <v>0.6677814899462063</v>
+        <v>0.227975746556861</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.665513089107063</v>
+        <v>0.7456461477609715</v>
       </c>
       <c r="D26">
-        <v>0.2361240166297889</v>
+        <v>1.523696846253132</v>
       </c>
       <c r="E26">
-        <v>1.534141609514402</v>
+        <v>0.3073287146593363</v>
       </c>
       <c r="F26">
-        <v>1.456365638298007</v>
+        <v>1.559396370878425</v>
       </c>
       <c r="G26">
-        <v>0.2361240166297889</v>
+        <v>1.523696846253132</v>
       </c>
       <c r="H26">
-        <v>3.583027535786297</v>
+        <v>1.082404912359243</v>
       </c>
       <c r="I26">
-        <v>1.41169900500751</v>
+        <v>2.045999093377911</v>
       </c>
       <c r="J26">
-        <v>3.583027535786297</v>
+        <v>1.082404912359243</v>
       </c>
       <c r="K26">
-        <v>0.2361240166297889</v>
+        <v>1.523696846253132</v>
       </c>
       <c r="L26">
-        <v>1.41169900500751</v>
+        <v>2.045999093377911</v>
       </c>
       <c r="M26">
-        <v>2.497363270396903</v>
+        <v>1.564202002868577</v>
       </c>
       <c r="N26">
-        <v>2.497363270396903</v>
+        <v>1.564202002868577</v>
       </c>
       <c r="O26">
-        <v>2.150364059697271</v>
+        <v>1.562600125538526</v>
       </c>
       <c r="P26">
-        <v>1.743616852474531</v>
+        <v>1.550700283996762</v>
       </c>
       <c r="Q26">
-        <v>1.743616852474532</v>
+        <v>1.550700283996762</v>
       </c>
       <c r="R26">
-        <v>1.366743643513346</v>
+        <v>1.543949424560854</v>
       </c>
       <c r="S26">
-        <v>1.366743643513346</v>
+        <v>1.543949424560854</v>
       </c>
       <c r="T26">
-        <v>1.481145149057178</v>
+        <v>1.21074534754817</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>-0.000458632955238661</v>
+        <v>2.025259966519305</v>
       </c>
       <c r="D27">
-        <v>6.221618661633649</v>
+        <v>0.2519387160232637</v>
       </c>
       <c r="E27">
-        <v>0.7713169030436146</v>
+        <v>-2.854163081084685E-05</v>
       </c>
       <c r="F27">
-        <v>0.2851309699944394</v>
+        <v>0.4189148744715309</v>
       </c>
       <c r="G27">
-        <v>6.221618661633649</v>
+        <v>0.2519387160232637</v>
       </c>
       <c r="H27">
-        <v>0.004998663308177577</v>
+        <v>0.001267893328709134</v>
       </c>
       <c r="I27">
-        <v>0.3117023539009463</v>
+        <v>1.30933603096524</v>
       </c>
       <c r="J27">
-        <v>0.004998663308177577</v>
+        <v>0.001267893328709134</v>
       </c>
       <c r="K27">
-        <v>6.221618661633649</v>
+        <v>0.2519387160232637</v>
       </c>
       <c r="L27">
-        <v>0.3117023539009463</v>
+        <v>1.30933603096524</v>
       </c>
       <c r="M27">
-        <v>0.1583505086045619</v>
+        <v>0.6553019621469743</v>
       </c>
       <c r="N27">
-        <v>0.1583505086045619</v>
+        <v>0.6553019621469743</v>
       </c>
       <c r="O27">
-        <v>0.2006106624011877</v>
+        <v>0.5765062662551599</v>
       </c>
       <c r="P27">
-        <v>2.179439892947591</v>
+        <v>0.5208475467724042</v>
       </c>
       <c r="Q27">
-        <v>2.179439892947591</v>
+        <v>0.5208475467724042</v>
       </c>
       <c r="R27">
-        <v>3.189984585119105</v>
+        <v>0.4536203390851191</v>
       </c>
       <c r="S27">
-        <v>3.189984585119105</v>
+        <v>0.4536203390851191</v>
       </c>
       <c r="T27">
-        <v>1.265718153154265</v>
+        <v>0.6677814899462063</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.09472822506684872</v>
+        <v>0.665513089107063</v>
       </c>
       <c r="D28">
-        <v>6.12182277446185</v>
+        <v>0.2361240166297889</v>
       </c>
       <c r="E28">
-        <v>6.623353786372772</v>
+        <v>1.534141609514402</v>
       </c>
       <c r="F28">
-        <v>0.0004935904292965664</v>
+        <v>1.456365638298007</v>
       </c>
       <c r="G28">
-        <v>6.12182277446185</v>
+        <v>0.2361240166297889</v>
       </c>
       <c r="H28">
-        <v>5.753135611041809</v>
+        <v>3.583027535786297</v>
       </c>
       <c r="I28">
-        <v>0.2527184087704171</v>
+        <v>1.41169900500751</v>
       </c>
       <c r="J28">
-        <v>5.753135611041809</v>
+        <v>3.583027535786297</v>
       </c>
       <c r="K28">
-        <v>6.12182277446185</v>
+        <v>0.2361240166297889</v>
       </c>
       <c r="L28">
-        <v>0.2527184087704171</v>
+        <v>1.41169900500751</v>
       </c>
       <c r="M28">
-        <v>3.002927009906113</v>
+        <v>2.497363270396903</v>
       </c>
       <c r="N28">
-        <v>3.002927009906113</v>
+        <v>2.497363270396903</v>
       </c>
       <c r="O28">
-        <v>2.002115870080508</v>
+        <v>2.150364059697271</v>
       </c>
       <c r="P28">
-        <v>4.042558931424693</v>
+        <v>1.743616852474531</v>
       </c>
       <c r="Q28">
-        <v>4.042558931424693</v>
+        <v>1.743616852474532</v>
       </c>
       <c r="R28">
-        <v>4.562374892183982</v>
+        <v>1.366743643513346</v>
       </c>
       <c r="S28">
-        <v>4.562374892183982</v>
+        <v>1.366743643513346</v>
       </c>
       <c r="T28">
-        <v>3.141042066023832</v>
+        <v>1.481145149057178</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>-0.000458632955238661</v>
+      </c>
+      <c r="D29">
+        <v>6.221618661633649</v>
+      </c>
+      <c r="E29">
+        <v>0.7713169030436146</v>
+      </c>
+      <c r="F29">
+        <v>0.2851309699944394</v>
+      </c>
+      <c r="G29">
+        <v>6.221618661633649</v>
+      </c>
+      <c r="H29">
+        <v>0.004998663308177577</v>
+      </c>
+      <c r="I29">
+        <v>0.3117023539009463</v>
+      </c>
+      <c r="J29">
+        <v>0.004998663308177577</v>
+      </c>
+      <c r="K29">
+        <v>6.221618661633649</v>
+      </c>
+      <c r="L29">
+        <v>0.3117023539009463</v>
+      </c>
+      <c r="M29">
+        <v>0.1583505086045619</v>
+      </c>
+      <c r="N29">
+        <v>0.1583505086045619</v>
+      </c>
+      <c r="O29">
+        <v>0.2006106624011877</v>
+      </c>
+      <c r="P29">
+        <v>2.179439892947591</v>
+      </c>
+      <c r="Q29">
+        <v>2.179439892947591</v>
+      </c>
+      <c r="R29">
+        <v>3.189984585119105</v>
+      </c>
+      <c r="S29">
+        <v>3.189984585119105</v>
+      </c>
+      <c r="T29">
+        <v>1.265718153154265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.09472822506684872</v>
+      </c>
+      <c r="D30">
+        <v>6.12182277446185</v>
+      </c>
+      <c r="E30">
+        <v>6.623353786372772</v>
+      </c>
+      <c r="F30">
+        <v>0.0004935904292965664</v>
+      </c>
+      <c r="G30">
+        <v>6.12182277446185</v>
+      </c>
+      <c r="H30">
+        <v>5.753135611041809</v>
+      </c>
+      <c r="I30">
+        <v>0.2527184087704171</v>
+      </c>
+      <c r="J30">
+        <v>5.753135611041809</v>
+      </c>
+      <c r="K30">
+        <v>6.12182277446185</v>
+      </c>
+      <c r="L30">
+        <v>0.2527184087704171</v>
+      </c>
+      <c r="M30">
+        <v>3.002927009906113</v>
+      </c>
+      <c r="N30">
+        <v>3.002927009906113</v>
+      </c>
+      <c r="O30">
+        <v>2.002115870080508</v>
+      </c>
+      <c r="P30">
+        <v>4.042558931424693</v>
+      </c>
+      <c r="Q30">
+        <v>4.042558931424693</v>
+      </c>
+      <c r="R30">
+        <v>4.562374892183982</v>
+      </c>
+      <c r="S30">
+        <v>4.562374892183982</v>
+      </c>
+      <c r="T30">
+        <v>3.141042066023832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>-0.001713409580115199</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>13.7847461510225</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.003547819519756165</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.004400699825283607</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>13.7847461510225</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>-0.002555675968441147</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.5714371306903906</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>-0.002555675968441147</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>13.7847461510225</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.5714371306903906</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.2844407273609747</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.2844407273609747</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.1910940515157443</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>4.784542535248152</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>4.784542535248152</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>7.03459343919174</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>7.03459343919174</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>2.393310452584897</v>
       </c>
     </row>
